--- a/raw_data/20200818_saline/20200818_Sensor2_Test_88.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_88.xlsx
@@ -1,1022 +1,1438 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB45852-63E0-4B68-8F12-2FF9D83594E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>78674.999989</v>
+        <v>78674.999989000004</v>
       </c>
       <c r="B2" s="1">
         <v>21.854167</v>
       </c>
       <c r="C2" s="1">
-        <v>1248.790000</v>
+        <v>1248.79</v>
       </c>
       <c r="D2" s="1">
-        <v>-305.275000</v>
+        <v>-305.27499999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>78685.381751</v>
+        <v>78685.381750999994</v>
       </c>
       <c r="G2" s="1">
-        <v>21.857050</v>
+        <v>21.857050000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1273.310000</v>
+        <v>1273.31</v>
       </c>
       <c r="I2" s="1">
-        <v>-264.251000</v>
+        <v>-264.25099999999998</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>78695.521465</v>
+        <v>78695.521464999998</v>
       </c>
       <c r="L2" s="1">
-        <v>21.859867</v>
+        <v>21.859867000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1311.330000</v>
+        <v>1311.33</v>
       </c>
       <c r="N2" s="1">
-        <v>-203.564000</v>
+        <v>-203.56399999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>78706.031196</v>
+        <v>78706.031195999996</v>
       </c>
       <c r="Q2" s="1">
         <v>21.862786</v>
       </c>
       <c r="R2" s="1">
-        <v>1323.610000</v>
+        <v>1323.61</v>
       </c>
       <c r="S2" s="1">
-        <v>-186.170000</v>
+        <v>-186.17</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>78716.614334</v>
+        <v>78716.614333999998</v>
       </c>
       <c r="V2" s="1">
-        <v>21.865726</v>
+        <v>21.865725999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1337.480000</v>
+        <v>1337.48</v>
       </c>
       <c r="X2" s="1">
-        <v>-172.852000</v>
+        <v>-172.852</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>78727.408271</v>
+        <v>78727.408270999993</v>
       </c>
       <c r="AA2" s="1">
-        <v>21.868725</v>
+        <v>21.868725000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1355.430000</v>
+        <v>1355.43</v>
       </c>
       <c r="AC2" s="1">
-        <v>-170.953000</v>
+        <v>-170.953</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>78737.927954</v>
+        <v>78737.927953999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>21.871647</v>
+        <v>21.871646999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1368.740000</v>
+        <v>1368.74</v>
       </c>
       <c r="AH2" s="1">
-        <v>-180.257000</v>
+        <v>-180.25700000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>78748.351878</v>
+        <v>78748.351878000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>21.874542</v>
+        <v>21.874542000000002</v>
       </c>
       <c r="AL2" s="1">
-        <v>1390.470000</v>
+        <v>1390.47</v>
       </c>
       <c r="AM2" s="1">
-        <v>-210.076000</v>
+        <v>-210.07599999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>78759.035173</v>
+        <v>78759.035172999997</v>
       </c>
       <c r="AP2" s="1">
-        <v>21.877510</v>
+        <v>21.877510000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1412.910000</v>
+        <v>1412.91</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.438000</v>
+        <v>-253.43799999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>78770.084055</v>
+        <v>78770.084054999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>21.880579</v>
+        <v>21.880579000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1438.190000</v>
+        <v>1438.19</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.732000</v>
+        <v>-312.73200000000003</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>78781.455336</v>
+        <v>78781.455335999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>21.883738</v>
+        <v>21.883738000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1457.940000</v>
+        <v>1457.94</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.211000</v>
+        <v>-364.21100000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>78792.437791</v>
+        <v>78792.437791000004</v>
       </c>
       <c r="BE2" s="1">
-        <v>21.886788</v>
+        <v>21.886787999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1544.730000</v>
+        <v>1544.73</v>
       </c>
       <c r="BG2" s="1">
-        <v>-609.253000</v>
+        <v>-609.25300000000004</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>78803.191516</v>
+        <v>78803.191516000006</v>
       </c>
       <c r="BJ2" s="1">
         <v>21.889775</v>
       </c>
       <c r="BK2" s="1">
-        <v>1701.000000</v>
+        <v>1701</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1047.700000</v>
+        <v>-1047.7</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>78814.290008</v>
+        <v>78814.290007999996</v>
       </c>
       <c r="BO2" s="1">
         <v>21.892858</v>
       </c>
       <c r="BP2" s="1">
-        <v>1998.020000</v>
+        <v>1998.02</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1804.290000</v>
+        <v>-1804.29</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>78825.453949</v>
+        <v>78825.453949000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>21.895959</v>
+        <v>21.895959000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>2388.130000</v>
+        <v>2388.13</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2676.020000</v>
+        <v>-2676.02</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>78836.091648</v>
+        <v>78836.091648000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>21.898914</v>
+        <v>21.898914000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2869.650000</v>
+        <v>2869.65</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3619.350000</v>
+        <v>-3619.35</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>78847.837905</v>
+        <v>78847.837904999993</v>
       </c>
       <c r="CD2" s="1">
-        <v>21.902177</v>
+        <v>21.902176999999998</v>
       </c>
       <c r="CE2" s="1">
-        <v>4280.750000</v>
+        <v>4280.75</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5886.050000</v>
+        <v>-5886.05</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>78675.344212</v>
+        <v>78675.344211999996</v>
       </c>
       <c r="B3" s="1">
-        <v>21.854262</v>
+        <v>21.854261999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1248.940000</v>
+        <v>1248.94</v>
       </c>
       <c r="D3" s="1">
-        <v>-305.170000</v>
+        <v>-305.17</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>78685.751270</v>
+        <v>78685.751269999993</v>
       </c>
       <c r="G3" s="1">
         <v>21.857153</v>
       </c>
       <c r="H3" s="1">
-        <v>1275.720000</v>
+        <v>1275.72</v>
       </c>
       <c r="I3" s="1">
-        <v>-264.799000</v>
+        <v>-264.79899999999998</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>78695.897961</v>
+        <v>78695.897960999995</v>
       </c>
       <c r="L3" s="1">
-        <v>21.859972</v>
+        <v>21.859971999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1311.290000</v>
+        <v>1311.29</v>
       </c>
       <c r="N3" s="1">
-        <v>-204.185000</v>
+        <v>-204.185</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>78706.405179</v>
+        <v>78706.405178999994</v>
       </c>
       <c r="Q3" s="1">
-        <v>21.862890</v>
+        <v>21.86289</v>
       </c>
       <c r="R3" s="1">
-        <v>1323.640000</v>
+        <v>1323.64</v>
       </c>
       <c r="S3" s="1">
-        <v>-186.322000</v>
+        <v>-186.322</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>78717.331053</v>
+        <v>78717.331053000002</v>
       </c>
       <c r="V3" s="1">
-        <v>21.865925</v>
+        <v>21.865925000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1337.130000</v>
+        <v>1337.13</v>
       </c>
       <c r="X3" s="1">
-        <v>-173.022000</v>
+        <v>-173.02199999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>78727.751536</v>
+        <v>78727.751535999996</v>
       </c>
       <c r="AA3" s="1">
-        <v>21.868820</v>
+        <v>21.868819999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1355.620000</v>
+        <v>1355.62</v>
       </c>
       <c r="AC3" s="1">
-        <v>-170.760000</v>
+        <v>-170.76</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>78738.257761</v>
+        <v>78738.257761000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>21.871738</v>
+        <v>21.871738000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1369.140000</v>
+        <v>1369.14</v>
       </c>
       <c r="AH3" s="1">
-        <v>-180.549000</v>
+        <v>-180.54900000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>78748.729827</v>
+        <v>78748.729827000003</v>
       </c>
       <c r="AK3" s="1">
         <v>21.874647</v>
       </c>
       <c r="AL3" s="1">
-        <v>1390.490000</v>
+        <v>1390.49</v>
       </c>
       <c r="AM3" s="1">
-        <v>-210.082000</v>
+        <v>-210.08199999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>78759.742468</v>
+        <v>78759.742467999997</v>
       </c>
       <c r="AP3" s="1">
         <v>21.877706</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1412.920000</v>
+        <v>1412.92</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.438000</v>
+        <v>-253.43799999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>78770.766582</v>
+        <v>78770.766581999997</v>
       </c>
       <c r="AU3" s="1">
         <v>21.880768</v>
       </c>
       <c r="AV3" s="1">
-        <v>1438.170000</v>
+        <v>1438.17</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.718000</v>
+        <v>-312.71800000000002</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>78781.882888</v>
+        <v>78781.882887999993</v>
       </c>
       <c r="AZ3" s="1">
-        <v>21.883856</v>
+        <v>21.883856000000002</v>
       </c>
       <c r="BA3" s="1">
-        <v>1457.920000</v>
+        <v>1457.92</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.200000</v>
+        <v>-364.2</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>78792.867785</v>
+        <v>78792.867784999995</v>
       </c>
       <c r="BE3" s="1">
-        <v>21.886908</v>
+        <v>21.886907999999998</v>
       </c>
       <c r="BF3" s="1">
-        <v>1544.720000</v>
+        <v>1544.72</v>
       </c>
       <c r="BG3" s="1">
-        <v>-609.275000</v>
+        <v>-609.27499999999998</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>78803.570956</v>
+        <v>78803.570955999996</v>
       </c>
       <c r="BJ3" s="1">
-        <v>21.889881</v>
+        <v>21.889880999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1700.950000</v>
+        <v>1700.95</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1047.710000</v>
+        <v>-1047.71</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>78814.713613</v>
       </c>
       <c r="BO3" s="1">
-        <v>21.892976</v>
+        <v>21.892976000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1997.810000</v>
+        <v>1997.81</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1804.420000</v>
+        <v>-1804.42</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>78825.929613</v>
       </c>
       <c r="BT3" s="1">
-        <v>21.896092</v>
+        <v>21.896091999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>2387.650000</v>
+        <v>2387.65</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2676.300000</v>
+        <v>-2676.3</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>78836.554911</v>
+        <v>78836.554910999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>21.899043</v>
+        <v>21.899042999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2868.850000</v>
+        <v>2868.85</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3619.640000</v>
+        <v>-3619.64</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>78848.128592</v>
+        <v>78848.128591999994</v>
       </c>
       <c r="CD3" s="1">
         <v>21.902258</v>
       </c>
       <c r="CE3" s="1">
-        <v>4271.350000</v>
+        <v>4271.3500000000004</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5876.940000</v>
+        <v>-5876.94</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>78675.695380</v>
+        <v>78675.695380000005</v>
       </c>
       <c r="B4" s="1">
-        <v>21.854360</v>
+        <v>21.85436</v>
       </c>
       <c r="C4" s="1">
-        <v>1248.780000</v>
+        <v>1248.78</v>
       </c>
       <c r="D4" s="1">
-        <v>-305.081000</v>
+        <v>-305.08100000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>78686.094006</v>
+        <v>78686.094005999999</v>
       </c>
       <c r="G4" s="1">
-        <v>21.857248</v>
+        <v>21.857247999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>1274.320000</v>
+        <v>1274.32</v>
       </c>
       <c r="I4" s="1">
-        <v>-265.705000</v>
+        <v>-265.70499999999998</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>78696.586377</v>
@@ -1025,118 +1441,118 @@
         <v>21.860163</v>
       </c>
       <c r="M4" s="1">
-        <v>1311.190000</v>
+        <v>1311.19</v>
       </c>
       <c r="N4" s="1">
-        <v>-203.672000</v>
+        <v>-203.672</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>78707.101563</v>
+        <v>78707.101563000004</v>
       </c>
       <c r="Q4" s="1">
-        <v>21.863084</v>
+        <v>21.863084000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1323.510000</v>
+        <v>1323.51</v>
       </c>
       <c r="S4" s="1">
-        <v>-186.178000</v>
+        <v>-186.178</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>78717.672797</v>
+        <v>78717.672797000007</v>
       </c>
       <c r="V4" s="1">
-        <v>21.866020</v>
+        <v>21.866019999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1337.420000</v>
+        <v>1337.42</v>
       </c>
       <c r="X4" s="1">
-        <v>-172.964000</v>
+        <v>-172.964</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>78728.100190</v>
+        <v>78728.100189999997</v>
       </c>
       <c r="AA4" s="1">
         <v>21.868917</v>
       </c>
       <c r="AB4" s="1">
-        <v>1355.380000</v>
+        <v>1355.38</v>
       </c>
       <c r="AC4" s="1">
-        <v>-170.736000</v>
+        <v>-170.73599999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>78738.600994</v>
+        <v>78738.600993999993</v>
       </c>
       <c r="AF4" s="1">
         <v>21.871834</v>
       </c>
       <c r="AG4" s="1">
-        <v>1368.950000</v>
+        <v>1368.95</v>
       </c>
       <c r="AH4" s="1">
-        <v>-180.704000</v>
+        <v>-180.70400000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>78749.392946</v>
+        <v>78749.392946000007</v>
       </c>
       <c r="AK4" s="1">
         <v>21.874831</v>
       </c>
       <c r="AL4" s="1">
-        <v>1390.510000</v>
+        <v>1390.51</v>
       </c>
       <c r="AM4" s="1">
-        <v>-210.051000</v>
+        <v>-210.05099999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>78760.155142</v>
+        <v>78760.155142000003</v>
       </c>
       <c r="AP4" s="1">
-        <v>21.877821</v>
+        <v>21.877821000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1412.930000</v>
+        <v>1412.93</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.458000</v>
+        <v>-253.458</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>78771.186165</v>
+        <v>78771.186165000006</v>
       </c>
       <c r="AU4" s="1">
-        <v>21.880885</v>
+        <v>21.880884999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1438.150000</v>
+        <v>1438.15</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.762000</v>
+        <v>-312.762</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>78782.239512</v>
@@ -1145,467 +1561,467 @@
         <v>21.883955</v>
       </c>
       <c r="BA4" s="1">
-        <v>1457.930000</v>
+        <v>1457.93</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.185000</v>
+        <v>-364.185</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>78793.230887</v>
+        <v>78793.230886999998</v>
       </c>
       <c r="BE4" s="1">
-        <v>21.887009</v>
+        <v>21.887008999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1544.730000</v>
+        <v>1544.73</v>
       </c>
       <c r="BG4" s="1">
-        <v>-609.250000</v>
+        <v>-609.25</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>78803.946426</v>
+        <v>78803.946425999995</v>
       </c>
       <c r="BJ4" s="1">
-        <v>21.889985</v>
+        <v>21.889984999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1700.910000</v>
+        <v>1700.91</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1047.680000</v>
+        <v>-1047.68</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>78815.156508</v>
       </c>
       <c r="BO4" s="1">
-        <v>21.893099</v>
+        <v>21.893098999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1997.790000</v>
+        <v>1997.79</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1804.540000</v>
+        <v>-1804.54</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>78826.437022</v>
+        <v>78826.437021999998</v>
       </c>
       <c r="BT4" s="1">
-        <v>21.896233</v>
+        <v>21.896232999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>2387.390000</v>
+        <v>2387.39</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2676.400000</v>
+        <v>-2676.4</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>78837.002302</v>
+        <v>78837.002301999994</v>
       </c>
       <c r="BY4" s="1">
-        <v>21.899167</v>
+        <v>21.899166999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2869.310000</v>
+        <v>2869.31</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3620.400000</v>
+        <v>-3620.4</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>78848.642944</v>
+        <v>78848.642944000007</v>
       </c>
       <c r="CD4" s="1">
-        <v>21.902401</v>
+        <v>21.902401000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>4266.770000</v>
+        <v>4266.7700000000004</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5879.520000</v>
+        <v>-5879.52</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>78676.380355</v>
+        <v>78676.380355000001</v>
       </c>
       <c r="B5" s="1">
-        <v>21.854550</v>
+        <v>21.85455</v>
       </c>
       <c r="C5" s="1">
-        <v>1248.620000</v>
+        <v>1248.6199999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-305.229000</v>
+        <v>-305.22899999999998</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>78686.782985</v>
+        <v>78686.782984999998</v>
       </c>
       <c r="G5" s="1">
-        <v>21.857440</v>
+        <v>21.85744</v>
       </c>
       <c r="H5" s="1">
-        <v>1274.900000</v>
+        <v>1274.9000000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-265.097000</v>
+        <v>-265.09699999999998</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>78696.933602</v>
+        <v>78696.933602000005</v>
       </c>
       <c r="L5" s="1">
-        <v>21.860259</v>
+        <v>21.860258999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1311.200000</v>
+        <v>1311.2</v>
       </c>
       <c r="N5" s="1">
-        <v>-203.840000</v>
+        <v>-203.84</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>78707.456202</v>
+        <v>78707.456202000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>21.863182</v>
+        <v>21.863181999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>1323.510000</v>
+        <v>1323.51</v>
       </c>
       <c r="S5" s="1">
-        <v>-186.144000</v>
+        <v>-186.14400000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>78718.017517</v>
       </c>
       <c r="V5" s="1">
-        <v>21.866116</v>
+        <v>21.866116000000002</v>
       </c>
       <c r="W5" s="1">
-        <v>1337.360000</v>
+        <v>1337.36</v>
       </c>
       <c r="X5" s="1">
-        <v>-172.833000</v>
+        <v>-172.833</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>78728.754446</v>
+        <v>78728.754446000006</v>
       </c>
       <c r="AA5" s="1">
-        <v>21.869098</v>
+        <v>21.869098000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1355.430000</v>
+        <v>1355.43</v>
       </c>
       <c r="AC5" s="1">
-        <v>-170.886000</v>
+        <v>-170.886</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>78739.258192</v>
+        <v>78739.258191999994</v>
       </c>
       <c r="AF5" s="1">
-        <v>21.872016</v>
+        <v>21.872015999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1369.110000</v>
+        <v>1369.11</v>
       </c>
       <c r="AH5" s="1">
-        <v>-180.467000</v>
+        <v>-180.46700000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>78749.772882</v>
+        <v>78749.772882000005</v>
       </c>
       <c r="AK5" s="1">
-        <v>21.874937</v>
+        <v>21.874936999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1390.480000</v>
+        <v>1390.48</v>
       </c>
       <c r="AM5" s="1">
-        <v>-210.048000</v>
+        <v>-210.048</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>78760.544005</v>
+        <v>78760.544005000003</v>
       </c>
       <c r="AP5" s="1">
-        <v>21.877929</v>
+        <v>21.877929000000002</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1412.870000</v>
+        <v>1412.87</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.463000</v>
+        <v>-253.46299999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>78771.575544</v>
+        <v>78771.575544000007</v>
       </c>
       <c r="AU5" s="1">
         <v>21.880993</v>
       </c>
       <c r="AV5" s="1">
-        <v>1438.160000</v>
+        <v>1438.16</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.737000</v>
+        <v>-312.73700000000002</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>78782.599143</v>
+        <v>78782.599142999999</v>
       </c>
       <c r="AZ5" s="1">
         <v>21.884055</v>
       </c>
       <c r="BA5" s="1">
-        <v>1457.950000</v>
+        <v>1457.95</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.178000</v>
+        <v>-364.178</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>78793.663864</v>
+        <v>78793.663864000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>21.887129</v>
+        <v>21.887129000000002</v>
       </c>
       <c r="BF5" s="1">
-        <v>1544.720000</v>
+        <v>1544.72</v>
       </c>
       <c r="BG5" s="1">
-        <v>-609.251000</v>
+        <v>-609.25099999999998</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>78804.375465</v>
+        <v>78804.375465000005</v>
       </c>
       <c r="BJ5" s="1">
-        <v>21.890104</v>
+        <v>21.890104000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1701.000000</v>
+        <v>1701</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1047.760000</v>
+        <v>-1047.76</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>78815.530523</v>
+        <v>78815.530522999994</v>
       </c>
       <c r="BO5" s="1">
         <v>21.893203</v>
       </c>
       <c r="BP5" s="1">
-        <v>1997.700000</v>
+        <v>1997.7</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1804.520000</v>
+        <v>-1804.52</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>78826.780252</v>
+        <v>78826.780251999997</v>
       </c>
       <c r="BT5" s="1">
         <v>21.896328</v>
       </c>
       <c r="BU5" s="1">
-        <v>2387.080000</v>
+        <v>2387.08</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2676.800000</v>
+        <v>-2676.8</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>78837.434321</v>
+        <v>78837.434320999993</v>
       </c>
       <c r="BY5" s="1">
-        <v>21.899287</v>
+        <v>21.899287000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2868.650000</v>
+        <v>2868.65</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3620.280000</v>
+        <v>-3620.28</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>78849.190990</v>
+        <v>78849.190990000003</v>
       </c>
       <c r="CD5" s="1">
-        <v>21.902553</v>
+        <v>21.902553000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>4273.620000</v>
+        <v>4273.62</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5874.980000</v>
+        <v>-5874.98</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>78676.730530</v>
+        <v>78676.730530000001</v>
       </c>
       <c r="B6" s="1">
         <v>21.854647</v>
       </c>
       <c r="C6" s="1">
-        <v>1248.700000</v>
+        <v>1248.7</v>
       </c>
       <c r="D6" s="1">
-        <v>-305.268000</v>
+        <v>-305.26799999999997</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>78687.130647</v>
+        <v>78687.130646999998</v>
       </c>
       <c r="G6" s="1">
         <v>21.857536</v>
       </c>
       <c r="H6" s="1">
-        <v>1273.670000</v>
+        <v>1273.67</v>
       </c>
       <c r="I6" s="1">
-        <v>-264.664000</v>
+        <v>-264.66399999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>78697.281304</v>
+        <v>78697.281304000004</v>
       </c>
       <c r="L6" s="1">
-        <v>21.860356</v>
+        <v>21.860355999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1310.970000</v>
+        <v>1310.97</v>
       </c>
       <c r="N6" s="1">
-        <v>-203.888000</v>
+        <v>-203.88800000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>78707.809353</v>
+        <v>78707.809353000004</v>
       </c>
       <c r="Q6" s="1">
-        <v>21.863280</v>
+        <v>21.86328</v>
       </c>
       <c r="R6" s="1">
-        <v>1323.590000</v>
+        <v>1323.59</v>
       </c>
       <c r="S6" s="1">
-        <v>-186.175000</v>
+        <v>-186.17500000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>78718.692572</v>
       </c>
       <c r="V6" s="1">
-        <v>21.866303</v>
+        <v>21.866302999999998</v>
       </c>
       <c r="W6" s="1">
-        <v>1337.510000</v>
+        <v>1337.51</v>
       </c>
       <c r="X6" s="1">
-        <v>-172.905000</v>
+        <v>-172.905</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>78729.142782</v>
+        <v>78729.142781999995</v>
       </c>
       <c r="AA6" s="1">
-        <v>21.869206</v>
+        <v>21.869205999999998</v>
       </c>
       <c r="AB6" s="1">
-        <v>1355.430000</v>
+        <v>1355.43</v>
       </c>
       <c r="AC6" s="1">
-        <v>-170.787000</v>
+        <v>-170.78700000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>78739.631679</v>
+        <v>78739.631678999998</v>
       </c>
       <c r="AF6" s="1">
-        <v>21.872120</v>
+        <v>21.872119999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1369.070000</v>
+        <v>1369.07</v>
       </c>
       <c r="AH6" s="1">
-        <v>-180.225000</v>
+        <v>-180.22499999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>78750.125537</v>
@@ -1614,754 +2030,754 @@
         <v>21.875035</v>
       </c>
       <c r="AL6" s="1">
-        <v>1390.490000</v>
+        <v>1390.49</v>
       </c>
       <c r="AM6" s="1">
-        <v>-210.076000</v>
+        <v>-210.07599999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>78760.921955</v>
+        <v>78760.921954999998</v>
       </c>
       <c r="AP6" s="1">
         <v>21.878034</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1412.910000</v>
+        <v>1412.91</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.451000</v>
+        <v>-253.45099999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>78771.940614</v>
+        <v>78771.940614000006</v>
       </c>
       <c r="AU6" s="1">
-        <v>21.881095</v>
+        <v>21.881094999999998</v>
       </c>
       <c r="AV6" s="1">
-        <v>1438.140000</v>
+        <v>1438.14</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.713000</v>
+        <v>-312.71300000000002</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>78783.013766</v>
+        <v>78783.013766000004</v>
       </c>
       <c r="AZ6" s="1">
-        <v>21.884170</v>
+        <v>21.884170000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1457.960000</v>
+        <v>1457.96</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.195000</v>
+        <v>-364.19499999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>78793.951543</v>
+        <v>78793.951543000003</v>
       </c>
       <c r="BE6" s="1">
-        <v>21.887209</v>
+        <v>21.887208999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1544.670000</v>
+        <v>1544.67</v>
       </c>
       <c r="BG6" s="1">
-        <v>-609.236000</v>
+        <v>-609.23599999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>78804.722170</v>
+        <v>78804.722169999994</v>
       </c>
       <c r="BJ6" s="1">
-        <v>21.890201</v>
+        <v>21.890201000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1700.920000</v>
+        <v>1700.92</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1047.670000</v>
+        <v>-1047.67</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>78815.929770</v>
+        <v>78815.929770000002</v>
       </c>
       <c r="BO6" s="1">
         <v>21.893314</v>
       </c>
       <c r="BP6" s="1">
-        <v>1997.620000</v>
+        <v>1997.62</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1804.520000</v>
+        <v>-1804.52</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>78827.197387</v>
+        <v>78827.197386999993</v>
       </c>
       <c r="BT6" s="1">
-        <v>21.896444</v>
+        <v>21.896443999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>2386.950000</v>
+        <v>2386.9499999999998</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2676.530000</v>
+        <v>-2676.53</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>78837.858893</v>
+        <v>78837.858892999997</v>
       </c>
       <c r="BY6" s="1">
-        <v>21.899405</v>
+        <v>21.899405000000002</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2868.650000</v>
+        <v>2868.65</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3620.050000</v>
+        <v>-3620.05</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>78849.722702</v>
+        <v>78849.722701999999</v>
       </c>
       <c r="CD6" s="1">
         <v>21.902701</v>
       </c>
       <c r="CE6" s="1">
-        <v>4259.590000</v>
+        <v>4259.59</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5885.040000</v>
+        <v>-5885.04</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>78677.071281</v>
+        <v>78677.071280999997</v>
       </c>
       <c r="B7" s="1">
-        <v>21.854742</v>
+        <v>21.854742000000002</v>
       </c>
       <c r="C7" s="1">
-        <v>1248.800000</v>
+        <v>1248.8</v>
       </c>
       <c r="D7" s="1">
-        <v>-305.270000</v>
+        <v>-305.27</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>78687.473877</v>
+        <v>78687.473876999997</v>
       </c>
       <c r="G7" s="1">
-        <v>21.857632</v>
+        <v>21.857631999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1274.470000</v>
+        <v>1274.47</v>
       </c>
       <c r="I7" s="1">
-        <v>-264.404000</v>
+        <v>-264.404</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>78697.941943</v>
+        <v>78697.941942999998</v>
       </c>
       <c r="L7" s="1">
-        <v>21.860539</v>
+        <v>21.860538999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1311.100000</v>
+        <v>1311.1</v>
       </c>
       <c r="N7" s="1">
-        <v>-203.947000</v>
+        <v>-203.947</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>78708.464568</v>
+        <v>78708.464567999996</v>
       </c>
       <c r="Q7" s="1">
-        <v>21.863462</v>
+        <v>21.863461999999998</v>
       </c>
       <c r="R7" s="1">
-        <v>1323.650000</v>
+        <v>1323.65</v>
       </c>
       <c r="S7" s="1">
-        <v>-186.197000</v>
+        <v>-186.197</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>78719.052172</v>
+        <v>78719.052171999996</v>
       </c>
       <c r="V7" s="1">
-        <v>21.866403</v>
+        <v>21.866402999999998</v>
       </c>
       <c r="W7" s="1">
-        <v>1337.210000</v>
+        <v>1337.21</v>
       </c>
       <c r="X7" s="1">
-        <v>-172.792000</v>
+        <v>-172.792</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>78729.490974</v>
       </c>
       <c r="AA7" s="1">
-        <v>21.869303</v>
+        <v>21.869302999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1355.490000</v>
+        <v>1355.49</v>
       </c>
       <c r="AC7" s="1">
-        <v>-170.939000</v>
+        <v>-170.93899999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>78739.976928</v>
+        <v>78739.976928000004</v>
       </c>
       <c r="AF7" s="1">
-        <v>21.872216</v>
+        <v>21.872216000000002</v>
       </c>
       <c r="AG7" s="1">
-        <v>1369.180000</v>
+        <v>1369.18</v>
       </c>
       <c r="AH7" s="1">
-        <v>-180.505000</v>
+        <v>-180.505</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>78750.472774</v>
+        <v>78750.472773999994</v>
       </c>
       <c r="AK7" s="1">
         <v>21.875131</v>
       </c>
       <c r="AL7" s="1">
-        <v>1390.470000</v>
+        <v>1390.47</v>
       </c>
       <c r="AM7" s="1">
-        <v>-210.069000</v>
+        <v>-210.06899999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>78761.345044</v>
+        <v>78761.345044000002</v>
       </c>
       <c r="AP7" s="1">
-        <v>21.878151</v>
+        <v>21.878150999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1412.900000</v>
+        <v>1412.9</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.455000</v>
+        <v>-253.45500000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>78772.359700</v>
+        <v>78772.359700000001</v>
       </c>
       <c r="AU7" s="1">
         <v>21.881211</v>
       </c>
       <c r="AV7" s="1">
-        <v>1438.190000</v>
+        <v>1438.19</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.727000</v>
+        <v>-312.72699999999998</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>78783.317317</v>
+        <v>78783.317316999994</v>
       </c>
       <c r="AZ7" s="1">
         <v>21.884255</v>
       </c>
       <c r="BA7" s="1">
-        <v>1457.970000</v>
+        <v>1457.97</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.168000</v>
+        <v>-364.16800000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>78794.314119</v>
+        <v>78794.314119000002</v>
       </c>
       <c r="BE7" s="1">
-        <v>21.887309</v>
+        <v>21.887308999999998</v>
       </c>
       <c r="BF7" s="1">
-        <v>1544.690000</v>
+        <v>1544.69</v>
       </c>
       <c r="BG7" s="1">
-        <v>-609.274000</v>
+        <v>-609.274</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>78805.098169</v>
+        <v>78805.098169000004</v>
       </c>
       <c r="BJ7" s="1">
-        <v>21.890305</v>
+        <v>21.890305000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1700.960000</v>
+        <v>1700.96</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1047.710000</v>
+        <v>-1047.71</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>78816.350378</v>
+        <v>78816.350378000003</v>
       </c>
       <c r="BO7" s="1">
         <v>21.893431</v>
       </c>
       <c r="BP7" s="1">
-        <v>1997.580000</v>
+        <v>1997.58</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1804.410000</v>
+        <v>-1804.41</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>78827.616043</v>
+        <v>78827.616043000002</v>
       </c>
       <c r="BT7" s="1">
-        <v>21.896560</v>
+        <v>21.896560000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>2386.480000</v>
+        <v>2386.48</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2676.650000</v>
+        <v>-2676.65</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>78838.289421</v>
+        <v>78838.289420999994</v>
       </c>
       <c r="BY7" s="1">
-        <v>21.899525</v>
+        <v>21.899525000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2868.610000</v>
+        <v>2868.61</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3619.750000</v>
+        <v>-3619.75</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>78850.240525</v>
+        <v>78850.240525000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>21.902845</v>
+        <v>21.902844999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>4268.310000</v>
+        <v>4268.3100000000004</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5878.290000</v>
+        <v>-5878.29</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>78677.740422</v>
+        <v>78677.740422000003</v>
       </c>
       <c r="B8" s="1">
-        <v>21.854928</v>
+        <v>21.854928000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1248.670000</v>
+        <v>1248.67</v>
       </c>
       <c r="D8" s="1">
-        <v>-305.236000</v>
+        <v>-305.23599999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>78688.143507</v>
+        <v>78688.143507000001</v>
       </c>
       <c r="G8" s="1">
-        <v>21.857818</v>
+        <v>21.857818000000002</v>
       </c>
       <c r="H8" s="1">
-        <v>1274.250000</v>
+        <v>1274.25</v>
       </c>
       <c r="I8" s="1">
-        <v>-265.257000</v>
+        <v>-265.25700000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>78698.315928</v>
+        <v>78698.315927999996</v>
       </c>
       <c r="L8" s="1">
         <v>21.860643</v>
       </c>
       <c r="M8" s="1">
-        <v>1311.120000</v>
+        <v>1311.12</v>
       </c>
       <c r="N8" s="1">
-        <v>-203.819000</v>
+        <v>-203.81899999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>78708.850952</v>
+        <v>78708.850951999993</v>
       </c>
       <c r="Q8" s="1">
-        <v>21.863570</v>
+        <v>21.863569999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>1323.620000</v>
+        <v>1323.62</v>
       </c>
       <c r="S8" s="1">
-        <v>-186.257000</v>
+        <v>-186.25700000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>78719.398873</v>
+        <v>78719.398872999998</v>
       </c>
       <c r="V8" s="1">
-        <v>21.866500</v>
+        <v>21.866499999999998</v>
       </c>
       <c r="W8" s="1">
-        <v>1337.410000</v>
+        <v>1337.41</v>
       </c>
       <c r="X8" s="1">
-        <v>-173.064000</v>
+        <v>-173.06399999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>78729.843132</v>
+        <v>78729.843131999995</v>
       </c>
       <c r="AA8" s="1">
         <v>21.869401</v>
       </c>
       <c r="AB8" s="1">
-        <v>1355.490000</v>
+        <v>1355.49</v>
       </c>
       <c r="AC8" s="1">
-        <v>-170.713000</v>
+        <v>-170.71299999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>78740.318640</v>
+        <v>78740.318639999998</v>
       </c>
       <c r="AF8" s="1">
         <v>21.872311</v>
       </c>
       <c r="AG8" s="1">
-        <v>1369.070000</v>
+        <v>1369.07</v>
       </c>
       <c r="AH8" s="1">
-        <v>-180.282000</v>
+        <v>-180.28200000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>78750.892848</v>
+        <v>78750.892848000003</v>
       </c>
       <c r="AK8" s="1">
-        <v>21.875248</v>
+        <v>21.875247999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1390.500000</v>
+        <v>1390.5</v>
       </c>
       <c r="AM8" s="1">
-        <v>-210.089000</v>
+        <v>-210.089</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>78761.643192</v>
+        <v>78761.643192000003</v>
       </c>
       <c r="AP8" s="1">
-        <v>21.878234</v>
+        <v>21.878233999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1412.910000</v>
+        <v>1412.91</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.415000</v>
+        <v>-253.41499999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>78772.669716</v>
+        <v>78772.669716000004</v>
       </c>
       <c r="AU8" s="1">
         <v>21.881297</v>
       </c>
       <c r="AV8" s="1">
-        <v>1438.190000</v>
+        <v>1438.19</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.719000</v>
+        <v>-312.71899999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>78783.674945</v>
+        <v>78783.674945000006</v>
       </c>
       <c r="AZ8" s="1">
-        <v>21.884354</v>
+        <v>21.884353999999998</v>
       </c>
       <c r="BA8" s="1">
-        <v>1457.980000</v>
+        <v>1457.98</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.183000</v>
+        <v>-364.18299999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>78794.673255</v>
+        <v>78794.673255000002</v>
       </c>
       <c r="BE8" s="1">
-        <v>21.887409</v>
+        <v>21.887409000000002</v>
       </c>
       <c r="BF8" s="1">
-        <v>1544.700000</v>
+        <v>1544.7</v>
       </c>
       <c r="BG8" s="1">
-        <v>-609.224000</v>
+        <v>-609.22400000000005</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>78805.473927</v>
+        <v>78805.473926999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>21.890409</v>
+        <v>21.890408999999998</v>
       </c>
       <c r="BK8" s="1">
-        <v>1700.890000</v>
+        <v>1700.89</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1047.640000</v>
+        <v>-1047.6400000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>78817.153897</v>
+        <v>78817.153896999997</v>
       </c>
       <c r="BO8" s="1">
-        <v>21.893654</v>
+        <v>21.893654000000002</v>
       </c>
       <c r="BP8" s="1">
-        <v>1997.610000</v>
+        <v>1997.61</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1804.490000</v>
+        <v>-1804.49</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>78828.023759</v>
+        <v>78828.023759000003</v>
       </c>
       <c r="BT8" s="1">
         <v>21.896673</v>
       </c>
       <c r="BU8" s="1">
-        <v>2386.060000</v>
+        <v>2386.06</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2676.840000</v>
+        <v>-2676.84</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>78838.731853</v>
+        <v>78838.731853000005</v>
       </c>
       <c r="BY8" s="1">
-        <v>21.899648</v>
+        <v>21.899647999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2868.180000</v>
+        <v>2868.18</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3620.090000</v>
+        <v>-3620.09</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>78850.791084</v>
+        <v>78850.791083999997</v>
       </c>
       <c r="CD8" s="1">
         <v>21.902998</v>
       </c>
       <c r="CE8" s="1">
-        <v>4278.630000</v>
+        <v>4278.63</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5877.170000</v>
+        <v>-5877.17</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>78678.098001</v>
+        <v>78678.098001000006</v>
       </c>
       <c r="B9" s="1">
         <v>21.855027</v>
       </c>
       <c r="C9" s="1">
-        <v>1249.080000</v>
+        <v>1249.08</v>
       </c>
       <c r="D9" s="1">
-        <v>-305.345000</v>
+        <v>-305.34500000000003</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>78688.507539</v>
+        <v>78688.507538999998</v>
       </c>
       <c r="G9" s="1">
-        <v>21.857919</v>
+        <v>21.857918999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1274.370000</v>
+        <v>1274.3699999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-264.993000</v>
+        <v>-264.99299999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>78698.662630</v>
+        <v>78698.662630000006</v>
       </c>
       <c r="L9" s="1">
-        <v>21.860740</v>
+        <v>21.86074</v>
       </c>
       <c r="M9" s="1">
-        <v>1311.170000</v>
+        <v>1311.17</v>
       </c>
       <c r="N9" s="1">
-        <v>-203.785000</v>
+        <v>-203.785</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>78709.200135</v>
+        <v>78709.200135000006</v>
       </c>
       <c r="Q9" s="1">
         <v>21.863667</v>
       </c>
       <c r="R9" s="1">
-        <v>1323.510000</v>
+        <v>1323.51</v>
       </c>
       <c r="S9" s="1">
-        <v>-186.216000</v>
+        <v>-186.21600000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>78719.741114</v>
+        <v>78719.741114000004</v>
       </c>
       <c r="V9" s="1">
         <v>21.866595</v>
       </c>
       <c r="W9" s="1">
-        <v>1337.320000</v>
+        <v>1337.32</v>
       </c>
       <c r="X9" s="1">
-        <v>-172.907000</v>
+        <v>-172.90700000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>78730.267244</v>
+        <v>78730.267244000002</v>
       </c>
       <c r="AA9" s="1">
         <v>21.869519</v>
       </c>
       <c r="AB9" s="1">
-        <v>1355.540000</v>
+        <v>1355.54</v>
       </c>
       <c r="AC9" s="1">
-        <v>-170.741000</v>
+        <v>-170.74100000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>78740.754126</v>
@@ -2370,1101 +2786,1101 @@
         <v>21.872432</v>
       </c>
       <c r="AG9" s="1">
-        <v>1368.910000</v>
+        <v>1368.91</v>
       </c>
       <c r="AH9" s="1">
-        <v>-180.634000</v>
+        <v>-180.63399999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>78751.176064</v>
+        <v>78751.176063999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>21.875327</v>
+        <v>21.875326999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1390.500000</v>
+        <v>1390.5</v>
       </c>
       <c r="AM9" s="1">
-        <v>-210.045000</v>
+        <v>-210.04499999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>78762.005218</v>
+        <v>78762.005218000006</v>
       </c>
       <c r="AP9" s="1">
         <v>21.878335</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1412.900000</v>
+        <v>1412.9</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.429000</v>
+        <v>-253.429</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>78773.034755</v>
+        <v>78773.034755000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>21.881399</v>
+        <v>21.881398999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>1438.200000</v>
+        <v>1438.2</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.739000</v>
+        <v>-312.73899999999998</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>78784.033574</v>
+        <v>78784.033574000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>21.884454</v>
+        <v>21.884454000000002</v>
       </c>
       <c r="BA9" s="1">
-        <v>1457.940000</v>
+        <v>1457.94</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.155000</v>
+        <v>-364.15499999999997</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>78795.399861</v>
+        <v>78795.399860999998</v>
       </c>
       <c r="BE9" s="1">
         <v>21.887611</v>
       </c>
       <c r="BF9" s="1">
-        <v>1544.720000</v>
+        <v>1544.72</v>
       </c>
       <c r="BG9" s="1">
-        <v>-609.237000</v>
+        <v>-609.23699999999997</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>78806.223065</v>
+        <v>78806.223064999998</v>
       </c>
       <c r="BJ9" s="1">
         <v>21.890618</v>
       </c>
       <c r="BK9" s="1">
-        <v>1700.920000</v>
+        <v>1700.92</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1047.660000</v>
+        <v>-1047.6600000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>78817.582936</v>
+        <v>78817.582936000006</v>
       </c>
       <c r="BO9" s="1">
-        <v>21.893773</v>
+        <v>21.893772999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1997.400000</v>
+        <v>1997.4</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1804.520000</v>
+        <v>-1804.52</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>78828.442842</v>
+        <v>78828.442842000004</v>
       </c>
       <c r="BT9" s="1">
-        <v>21.896790</v>
+        <v>21.896789999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>2385.780000</v>
+        <v>2385.7800000000002</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2676.510000</v>
+        <v>-2676.51</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>78839.148529</v>
+        <v>78839.148528999998</v>
       </c>
       <c r="BY9" s="1">
         <v>21.899763</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2868.310000</v>
+        <v>2868.31</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3620.320000</v>
+        <v>-3620.32</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>78851.639243</v>
+        <v>78851.639242999998</v>
       </c>
       <c r="CD9" s="1">
         <v>21.903233</v>
       </c>
       <c r="CE9" s="1">
-        <v>4262.470000</v>
+        <v>4262.47</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5878.980000</v>
+        <v>-5878.98</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>78678.441233</v>
+        <v>78678.441233000005</v>
       </c>
       <c r="B10" s="1">
-        <v>21.855123</v>
+        <v>21.855122999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1248.810000</v>
+        <v>1248.81</v>
       </c>
       <c r="D10" s="1">
-        <v>-305.065000</v>
+        <v>-305.065</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>78688.850772</v>
+        <v>78688.850772000005</v>
       </c>
       <c r="G10" s="1">
-        <v>21.858014</v>
+        <v>21.858014000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1274.220000</v>
+        <v>1274.22</v>
       </c>
       <c r="I10" s="1">
-        <v>-264.612000</v>
+        <v>-264.61200000000002</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>78699.008869</v>
+        <v>78699.008868999998</v>
       </c>
       <c r="L10" s="1">
-        <v>21.860836</v>
+        <v>21.860835999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1311.010000</v>
+        <v>1311.01</v>
       </c>
       <c r="N10" s="1">
-        <v>-204.203000</v>
+        <v>-204.203</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>78709.631657</v>
+        <v>78709.631657000005</v>
       </c>
       <c r="Q10" s="1">
-        <v>21.863787</v>
+        <v>21.863786999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1323.540000</v>
+        <v>1323.54</v>
       </c>
       <c r="S10" s="1">
-        <v>-186.152000</v>
+        <v>-186.15199999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>78720.168170</v>
+        <v>78720.168170000004</v>
       </c>
       <c r="V10" s="1">
-        <v>21.866713</v>
+        <v>21.866713000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1337.190000</v>
+        <v>1337.19</v>
       </c>
       <c r="X10" s="1">
-        <v>-172.905000</v>
+        <v>-172.905</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>78730.539520</v>
+        <v>78730.539520000006</v>
       </c>
       <c r="AA10" s="1">
-        <v>21.869594</v>
+        <v>21.869593999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1355.510000</v>
+        <v>1355.51</v>
       </c>
       <c r="AC10" s="1">
-        <v>-170.844000</v>
+        <v>-170.84399999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>78741.037343</v>
+        <v>78741.037343000004</v>
       </c>
       <c r="AF10" s="1">
-        <v>21.872510</v>
+        <v>21.872509999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>1369.130000</v>
+        <v>1369.13</v>
       </c>
       <c r="AH10" s="1">
-        <v>-180.390000</v>
+        <v>-180.39</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>78751.520784</v>
+        <v>78751.520783999993</v>
       </c>
       <c r="AK10" s="1">
         <v>21.875422</v>
       </c>
       <c r="AL10" s="1">
-        <v>1390.490000</v>
+        <v>1390.49</v>
       </c>
       <c r="AM10" s="1">
-        <v>-210.071000</v>
+        <v>-210.071</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>78762.362374</v>
+        <v>78762.362374000004</v>
       </c>
       <c r="AP10" s="1">
-        <v>21.878434</v>
+        <v>21.878433999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1412.900000</v>
+        <v>1412.9</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.454000</v>
+        <v>-253.45400000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>78773.385922</v>
+        <v>78773.385922000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>21.881496</v>
+        <v>21.881495999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1438.160000</v>
+        <v>1438.16</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.711000</v>
+        <v>-312.71100000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>78784.751748</v>
+        <v>78784.751747999995</v>
       </c>
       <c r="AZ10" s="1">
         <v>21.884653</v>
       </c>
       <c r="BA10" s="1">
-        <v>1457.940000</v>
+        <v>1457.94</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.181000</v>
+        <v>-364.18099999999998</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>78795.774862</v>
+        <v>78795.774862000006</v>
       </c>
       <c r="BE10" s="1">
         <v>21.887715</v>
       </c>
       <c r="BF10" s="1">
-        <v>1544.710000</v>
+        <v>1544.71</v>
       </c>
       <c r="BG10" s="1">
-        <v>-609.217000</v>
+        <v>-609.21699999999998</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>78806.598536</v>
+        <v>78806.598536000005</v>
       </c>
       <c r="BJ10" s="1">
         <v>21.890722</v>
       </c>
       <c r="BK10" s="1">
-        <v>1700.930000</v>
+        <v>1700.93</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1047.670000</v>
+        <v>-1047.67</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>78817.983741</v>
+        <v>78817.983741000004</v>
       </c>
       <c r="BO10" s="1">
         <v>21.893884</v>
       </c>
       <c r="BP10" s="1">
-        <v>1997.420000</v>
+        <v>1997.42</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1804.560000</v>
+        <v>-1804.56</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>78829.162569</v>
+        <v>78829.162568999993</v>
       </c>
       <c r="BT10" s="1">
-        <v>21.896990</v>
+        <v>21.896989999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>2385.390000</v>
+        <v>2385.39</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2676.500000</v>
+        <v>-2676.5</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>78839.909851</v>
+        <v>78839.909851000004</v>
       </c>
       <c r="BY10" s="1">
-        <v>21.899975</v>
+        <v>21.899975000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2868.840000</v>
+        <v>2868.84</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3620.160000</v>
+        <v>-3620.16</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>78851.875339</v>
+        <v>78851.875339000006</v>
       </c>
       <c r="CD10" s="1">
-        <v>21.903299</v>
+        <v>21.903299000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>4264.180000</v>
+        <v>4264.18</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5894.360000</v>
+        <v>-5894.36</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>78678.782512</v>
+        <v>78678.782512000005</v>
       </c>
       <c r="B11" s="1">
         <v>21.855217</v>
       </c>
       <c r="C11" s="1">
-        <v>1248.900000</v>
+        <v>1248.9000000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-305.074000</v>
+        <v>-305.07400000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>78689.196482</v>
+        <v>78689.196481999999</v>
       </c>
       <c r="G11" s="1">
-        <v>21.858110</v>
+        <v>21.85811</v>
       </c>
       <c r="H11" s="1">
-        <v>1274.190000</v>
+        <v>1274.19</v>
       </c>
       <c r="I11" s="1">
-        <v>-264.560000</v>
+        <v>-264.56</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>78699.439893</v>
+        <v>78699.439893000002</v>
       </c>
       <c r="L11" s="1">
-        <v>21.860956</v>
+        <v>21.860956000000002</v>
       </c>
       <c r="M11" s="1">
-        <v>1311.140000</v>
+        <v>1311.14</v>
       </c>
       <c r="N11" s="1">
-        <v>-204.066000</v>
+        <v>-204.066</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>78709.910903</v>
+        <v>78709.910902999996</v>
       </c>
       <c r="Q11" s="1">
         <v>21.863864</v>
       </c>
       <c r="R11" s="1">
-        <v>1323.540000</v>
+        <v>1323.54</v>
       </c>
       <c r="S11" s="1">
-        <v>-186.093000</v>
+        <v>-186.09299999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>78720.441993</v>
       </c>
       <c r="V11" s="1">
-        <v>21.866789</v>
+        <v>21.866789000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>1337.490000</v>
+        <v>1337.49</v>
       </c>
       <c r="X11" s="1">
-        <v>-172.819000</v>
+        <v>-172.81899999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>78730.889692</v>
+        <v>78730.889691999997</v>
       </c>
       <c r="AA11" s="1">
-        <v>21.869692</v>
+        <v>21.869692000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1355.440000</v>
+        <v>1355.44</v>
       </c>
       <c r="AC11" s="1">
-        <v>-170.861000</v>
+        <v>-170.86099999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>78741.381565</v>
+        <v>78741.381565000003</v>
       </c>
       <c r="AF11" s="1">
-        <v>21.872606</v>
+        <v>21.872606000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1369.000000</v>
+        <v>1369</v>
       </c>
       <c r="AH11" s="1">
-        <v>-180.419000</v>
+        <v>-180.41900000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>78751.867984</v>
+        <v>78751.867983999997</v>
       </c>
       <c r="AK11" s="1">
-        <v>21.875519</v>
+        <v>21.875519000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1390.490000</v>
+        <v>1390.49</v>
       </c>
       <c r="AM11" s="1">
-        <v>-210.066000</v>
+        <v>-210.066</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>78763.082530</v>
+        <v>78763.08253</v>
       </c>
       <c r="AP11" s="1">
-        <v>21.878634</v>
+        <v>21.878634000000002</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1412.880000</v>
+        <v>1412.88</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.452000</v>
+        <v>-253.452</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>78774.129426</v>
       </c>
       <c r="AU11" s="1">
-        <v>21.881703</v>
+        <v>21.881703000000002</v>
       </c>
       <c r="AV11" s="1">
-        <v>1438.150000</v>
+        <v>1438.15</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.714000</v>
+        <v>-312.714</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>78785.110851</v>
+        <v>78785.110851000005</v>
       </c>
       <c r="AZ11" s="1">
         <v>21.884753</v>
       </c>
       <c r="BA11" s="1">
-        <v>1457.980000</v>
+        <v>1457.98</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.174000</v>
+        <v>-364.17399999999998</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>78796.139925</v>
+        <v>78796.139924999996</v>
       </c>
       <c r="BE11" s="1">
-        <v>21.887817</v>
+        <v>21.887816999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1544.710000</v>
+        <v>1544.71</v>
       </c>
       <c r="BG11" s="1">
-        <v>-609.259000</v>
+        <v>-609.25900000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>78806.973512</v>
+        <v>78806.973511999997</v>
       </c>
       <c r="BJ11" s="1">
-        <v>21.890826</v>
+        <v>21.890826000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1700.890000</v>
+        <v>1700.89</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1047.720000</v>
+        <v>-1047.72</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>78818.712822</v>
+        <v>78818.712822000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>21.894087</v>
+        <v>21.894086999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1997.410000</v>
+        <v>1997.41</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1804.370000</v>
+        <v>-1804.37</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>78829.272152</v>
+        <v>78829.272152000005</v>
       </c>
       <c r="BT11" s="1">
-        <v>21.897020</v>
+        <v>21.897020000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>2385.070000</v>
+        <v>2385.0700000000002</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2676.320000</v>
+        <v>-2676.32</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>78840.045754</v>
+        <v>78840.045754000006</v>
       </c>
       <c r="BY11" s="1">
-        <v>21.900013</v>
+        <v>21.900013000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2868.670000</v>
+        <v>2868.67</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3619.400000</v>
+        <v>-3619.4</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>78852.409531</v>
+        <v>78852.409530999998</v>
       </c>
       <c r="CD11" s="1">
         <v>21.903447</v>
       </c>
       <c r="CE11" s="1">
-        <v>4282.250000</v>
+        <v>4282.25</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5883.070000</v>
+        <v>-5883.07</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>78679.209039</v>
+        <v>78679.209038999994</v>
       </c>
       <c r="B12" s="1">
-        <v>21.855336</v>
+        <v>21.855336000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1248.840000</v>
+        <v>1248.8399999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-305.063000</v>
+        <v>-305.06299999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>78689.615143</v>
+        <v>78689.615143000003</v>
       </c>
       <c r="G12" s="1">
-        <v>21.858226</v>
+        <v>21.858225999999998</v>
       </c>
       <c r="H12" s="1">
-        <v>1274.810000</v>
+        <v>1274.81</v>
       </c>
       <c r="I12" s="1">
-        <v>-264.147000</v>
+        <v>-264.14699999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>78699.715160</v>
+        <v>78699.715160000007</v>
       </c>
       <c r="L12" s="1">
-        <v>21.861032</v>
+        <v>21.861032000000002</v>
       </c>
       <c r="M12" s="1">
-        <v>1311.210000</v>
+        <v>1311.21</v>
       </c>
       <c r="N12" s="1">
-        <v>-204.002000</v>
+        <v>-204.00200000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>78710.259094</v>
+        <v>78710.259093999994</v>
       </c>
       <c r="Q12" s="1">
         <v>21.863961</v>
       </c>
       <c r="R12" s="1">
-        <v>1323.590000</v>
+        <v>1323.59</v>
       </c>
       <c r="S12" s="1">
-        <v>-186.143000</v>
+        <v>-186.143</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>78720.787176</v>
+        <v>78720.787175999998</v>
       </c>
       <c r="V12" s="1">
         <v>21.866885</v>
       </c>
       <c r="W12" s="1">
-        <v>1337.530000</v>
+        <v>1337.53</v>
       </c>
       <c r="X12" s="1">
-        <v>-173.082000</v>
+        <v>-173.08199999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>78731.240858</v>
+        <v>78731.240858000005</v>
       </c>
       <c r="AA12" s="1">
-        <v>21.869789</v>
+        <v>21.869789000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1355.360000</v>
+        <v>1355.36</v>
       </c>
       <c r="AC12" s="1">
-        <v>-170.874000</v>
+        <v>-170.874</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>78741.736716</v>
+        <v>78741.736715999999</v>
       </c>
       <c r="AF12" s="1">
         <v>21.872705</v>
       </c>
       <c r="AG12" s="1">
-        <v>1369.080000</v>
+        <v>1369.08</v>
       </c>
       <c r="AH12" s="1">
-        <v>-180.406000</v>
+        <v>-180.40600000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>78752.567838</v>
+        <v>78752.567838000003</v>
       </c>
       <c r="AK12" s="1">
-        <v>21.875713</v>
+        <v>21.875713000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1390.500000</v>
+        <v>1390.5</v>
       </c>
       <c r="AM12" s="1">
-        <v>-210.074000</v>
+        <v>-210.07400000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>78763.444215</v>
+        <v>78763.444214999996</v>
       </c>
       <c r="AP12" s="1">
-        <v>21.878735</v>
+        <v>21.878734999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1412.920000</v>
+        <v>1412.92</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.422000</v>
+        <v>-253.422</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>78774.490551</v>
+        <v>78774.490550999995</v>
       </c>
       <c r="AU12" s="1">
-        <v>21.881803</v>
+        <v>21.881803000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1438.160000</v>
+        <v>1438.16</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.720000</v>
+        <v>-312.72000000000003</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>78785.469987</v>
+        <v>78785.469987000004</v>
       </c>
       <c r="AZ12" s="1">
         <v>21.884853</v>
       </c>
       <c r="BA12" s="1">
-        <v>1457.950000</v>
+        <v>1457.95</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.156000</v>
+        <v>-364.15600000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>78796.812998</v>
+        <v>78796.812997999994</v>
       </c>
       <c r="BE12" s="1">
-        <v>21.888004</v>
+        <v>21.888003999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1544.700000</v>
+        <v>1544.7</v>
       </c>
       <c r="BG12" s="1">
-        <v>-609.202000</v>
+        <v>-609.202</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>78807.656501</v>
+        <v>78807.656501000005</v>
       </c>
       <c r="BJ12" s="1">
         <v>21.891016</v>
       </c>
       <c r="BK12" s="1">
-        <v>1700.920000</v>
+        <v>1700.92</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1047.660000</v>
+        <v>-1047.6600000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>78819.221222</v>
+        <v>78819.221221999993</v>
       </c>
       <c r="BO12" s="1">
-        <v>21.894228</v>
+        <v>21.894227999999998</v>
       </c>
       <c r="BP12" s="1">
-        <v>1997.610000</v>
+        <v>1997.61</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1804.430000</v>
+        <v>-1804.43</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>78829.708633</v>
+        <v>78829.708633000002</v>
       </c>
       <c r="BT12" s="1">
-        <v>21.897141</v>
+        <v>21.897141000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>2384.690000</v>
+        <v>2384.69</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2676.270000</v>
+        <v>-2676.27</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>78840.470697</v>
+        <v>78840.470696999997</v>
       </c>
       <c r="BY12" s="1">
-        <v>21.900131</v>
+        <v>21.900130999999998</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2868.590000</v>
+        <v>2868.59</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3619.200000</v>
+        <v>-3619.2</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>78852.947232</v>
+        <v>78852.947232000006</v>
       </c>
       <c r="CD12" s="1">
         <v>21.903596</v>
       </c>
       <c r="CE12" s="1">
-        <v>4259.840000</v>
+        <v>4259.84</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5884.110000</v>
+        <v>-5884.11</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>78679.482373</v>
+        <v>78679.482373000006</v>
       </c>
       <c r="B13" s="1">
-        <v>21.855412</v>
+        <v>21.855412000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>1248.480000</v>
+        <v>1248.48</v>
       </c>
       <c r="D13" s="1">
-        <v>-305.090000</v>
+        <v>-305.08999999999997</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>78689.907281</v>
+        <v>78689.907281000007</v>
       </c>
       <c r="G13" s="1">
-        <v>21.858308</v>
+        <v>21.858308000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1274.690000</v>
+        <v>1274.69</v>
       </c>
       <c r="I13" s="1">
-        <v>-263.699000</v>
+        <v>-263.69900000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>78700.059860</v>
+        <v>78700.059859999994</v>
       </c>
       <c r="L13" s="1">
-        <v>21.861128</v>
+        <v>21.861128000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1311.090000</v>
+        <v>1311.09</v>
       </c>
       <c r="N13" s="1">
-        <v>-203.954000</v>
+        <v>-203.95400000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>78710.609765</v>
+        <v>78710.609765000001</v>
       </c>
       <c r="Q13" s="1">
         <v>21.864058</v>
       </c>
       <c r="R13" s="1">
-        <v>1323.640000</v>
+        <v>1323.64</v>
       </c>
       <c r="S13" s="1">
-        <v>-186.234000</v>
+        <v>-186.23400000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>78721.127464</v>
+        <v>78721.127464000005</v>
       </c>
       <c r="V13" s="1">
-        <v>21.866980</v>
+        <v>21.866980000000002</v>
       </c>
       <c r="W13" s="1">
-        <v>1337.350000</v>
+        <v>1337.35</v>
       </c>
       <c r="X13" s="1">
-        <v>-173.056000</v>
+        <v>-173.05600000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>78731.934267</v>
+        <v>78731.934267000004</v>
       </c>
       <c r="AA13" s="1">
         <v>21.869982</v>
       </c>
       <c r="AB13" s="1">
-        <v>1355.470000</v>
+        <v>1355.47</v>
       </c>
       <c r="AC13" s="1">
-        <v>-170.731000</v>
+        <v>-170.73099999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>78742.426141</v>
+        <v>78742.426141000004</v>
       </c>
       <c r="AF13" s="1">
-        <v>21.872896</v>
+        <v>21.872896000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1369.020000</v>
+        <v>1369.02</v>
       </c>
       <c r="AH13" s="1">
-        <v>-180.501000</v>
+        <v>-180.501</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>78752.913549</v>
+        <v>78752.913549000004</v>
       </c>
       <c r="AK13" s="1">
         <v>21.875809</v>
       </c>
       <c r="AL13" s="1">
-        <v>1390.490000</v>
+        <v>1390.49</v>
       </c>
       <c r="AM13" s="1">
-        <v>-210.071000</v>
+        <v>-210.071</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>78763.804207</v>
+        <v>78763.804206999994</v>
       </c>
       <c r="AP13" s="1">
-        <v>21.878835</v>
+        <v>21.878834999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1412.910000</v>
+        <v>1412.91</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.448000</v>
+        <v>-253.44800000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>78774.856064</v>
+        <v>78774.856064000007</v>
       </c>
       <c r="AU13" s="1">
-        <v>21.881904</v>
+        <v>21.881903999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1438.180000</v>
+        <v>1438.18</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.702000</v>
+        <v>-312.702</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>78786.141538</v>
+        <v>78786.141537999996</v>
       </c>
       <c r="AZ13" s="1">
-        <v>21.885039</v>
+        <v>21.885038999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1457.940000</v>
+        <v>1457.94</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.160000</v>
+        <v>-364.16</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>78797.251955</v>
@@ -3473,422 +3889,422 @@
         <v>21.888126</v>
       </c>
       <c r="BF13" s="1">
-        <v>1544.670000</v>
+        <v>1544.67</v>
       </c>
       <c r="BG13" s="1">
-        <v>-609.209000</v>
+        <v>-609.20899999999995</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>78808.100421</v>
+        <v>78808.100420999996</v>
       </c>
       <c r="BJ13" s="1">
-        <v>21.891139</v>
+        <v>21.891138999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1700.850000</v>
+        <v>1700.85</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1047.650000</v>
+        <v>-1047.6500000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>78819.640373</v>
+        <v>78819.640373000002</v>
       </c>
       <c r="BO13" s="1">
-        <v>21.894345</v>
+        <v>21.894345000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1997.490000</v>
+        <v>1997.49</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1804.240000</v>
+        <v>-1804.24</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>78830.124776</v>
+        <v>78830.124775999997</v>
       </c>
       <c r="BT13" s="1">
         <v>21.897257</v>
       </c>
       <c r="BU13" s="1">
-        <v>2384.800000</v>
+        <v>2384.8000000000002</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2675.730000</v>
+        <v>-2675.73</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>78840.887964</v>
+        <v>78840.887963999994</v>
       </c>
       <c r="BY13" s="1">
         <v>21.900247</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2868.200000</v>
+        <v>2868.2</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3619.460000</v>
+        <v>-3619.46</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>78853.488825</v>
+        <v>78853.488824999993</v>
       </c>
       <c r="CD13" s="1">
-        <v>21.903747</v>
+        <v>21.903746999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>4274.690000</v>
+        <v>4274.6899999999996</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5893.620000</v>
+        <v>-5893.62</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>78679.826062</v>
+        <v>78679.826061999993</v>
       </c>
       <c r="B14" s="1">
-        <v>21.855507</v>
+        <v>21.855506999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1248.890000</v>
+        <v>1248.8900000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-305.495000</v>
+        <v>-305.495</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>78690.250978</v>
+        <v>78690.250977999996</v>
       </c>
       <c r="G14" s="1">
-        <v>21.858403</v>
+        <v>21.858402999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1273.760000</v>
+        <v>1273.76</v>
       </c>
       <c r="I14" s="1">
-        <v>-264.847000</v>
+        <v>-264.84699999999998</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>78700.405107</v>
+        <v>78700.405106999999</v>
       </c>
       <c r="L14" s="1">
         <v>21.861224</v>
       </c>
       <c r="M14" s="1">
-        <v>1311.200000</v>
+        <v>1311.2</v>
       </c>
       <c r="N14" s="1">
-        <v>-203.947000</v>
+        <v>-203.947</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>78711.304164</v>
+        <v>78711.304164000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>21.864251</v>
+        <v>21.864250999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1323.510000</v>
+        <v>1323.51</v>
       </c>
       <c r="S14" s="1">
-        <v>-186.202000</v>
+        <v>-186.202</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>78721.812902</v>
+        <v>78721.812902000005</v>
       </c>
       <c r="V14" s="1">
-        <v>21.867170</v>
+        <v>21.867170000000002</v>
       </c>
       <c r="W14" s="1">
-        <v>1337.510000</v>
+        <v>1337.51</v>
       </c>
       <c r="X14" s="1">
-        <v>-172.918000</v>
+        <v>-172.91800000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>78732.286922</v>
+        <v>78732.286921999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>21.870080</v>
+        <v>21.870080000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>1355.470000</v>
+        <v>1355.47</v>
       </c>
       <c r="AC14" s="1">
-        <v>-170.871000</v>
+        <v>-170.87100000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>78742.768411</v>
+        <v>78742.768410999997</v>
       </c>
       <c r="AF14" s="1">
-        <v>21.872991</v>
+        <v>21.872990999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1369.100000</v>
+        <v>1369.1</v>
       </c>
       <c r="AH14" s="1">
-        <v>-180.389000</v>
+        <v>-180.38900000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>78753.267693</v>
+        <v>78753.267693000002</v>
       </c>
       <c r="AK14" s="1">
-        <v>21.875908</v>
+        <v>21.875907999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1390.490000</v>
+        <v>1390.49</v>
       </c>
       <c r="AM14" s="1">
-        <v>-210.092000</v>
+        <v>-210.09200000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>78764.484255</v>
+        <v>78764.484255000003</v>
       </c>
       <c r="AP14" s="1">
         <v>21.879023</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1412.900000</v>
+        <v>1412.9</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.447000</v>
+        <v>-253.447</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>78775.555921</v>
+        <v>78775.555921000006</v>
       </c>
       <c r="AU14" s="1">
         <v>21.882099</v>
       </c>
       <c r="AV14" s="1">
-        <v>1438.150000</v>
+        <v>1438.15</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.730000</v>
+        <v>-312.73</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>78786.543793</v>
+        <v>78786.543793000004</v>
       </c>
       <c r="AZ14" s="1">
         <v>21.885151</v>
       </c>
       <c r="BA14" s="1">
-        <v>1457.960000</v>
+        <v>1457.96</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.172000</v>
+        <v>-364.17200000000003</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>78797.616482</v>
+        <v>78797.616481999998</v>
       </c>
       <c r="BE14" s="1">
-        <v>21.888227</v>
+        <v>21.888227000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1544.720000</v>
+        <v>1544.72</v>
       </c>
       <c r="BG14" s="1">
-        <v>-609.209000</v>
+        <v>-609.20899999999995</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>78808.455060</v>
+        <v>78808.455059999993</v>
       </c>
       <c r="BJ14" s="1">
-        <v>21.891238</v>
+        <v>21.891238000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1700.880000</v>
+        <v>1700.88</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1047.660000</v>
+        <v>-1047.6600000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>78820.037172</v>
+        <v>78820.037171999997</v>
       </c>
       <c r="BO14" s="1">
-        <v>21.894455</v>
+        <v>21.894455000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1997.690000</v>
+        <v>1997.69</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1804.470000</v>
+        <v>-1804.47</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>78830.559768</v>
+        <v>78830.559768000006</v>
       </c>
       <c r="BT14" s="1">
         <v>21.897378</v>
       </c>
       <c r="BU14" s="1">
-        <v>2384.280000</v>
+        <v>2384.2800000000002</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2675.440000</v>
+        <v>-2675.44</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>78841.335848</v>
+        <v>78841.335848000002</v>
       </c>
       <c r="BY14" s="1">
         <v>21.900371</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2868.080000</v>
+        <v>2868.08</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3619.670000</v>
+        <v>-3619.67</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>78854.027513</v>
+        <v>78854.027512999994</v>
       </c>
       <c r="CD14" s="1">
-        <v>21.903897</v>
+        <v>21.903897000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>4275.330000</v>
+        <v>4275.33</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5876.830000</v>
+        <v>-5876.83</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>78680.164334</v>
+        <v>78680.164334000001</v>
       </c>
       <c r="B15" s="1">
         <v>21.855601</v>
       </c>
       <c r="C15" s="1">
-        <v>1248.550000</v>
+        <v>1248.55</v>
       </c>
       <c r="D15" s="1">
-        <v>-305.046000</v>
+        <v>-305.04599999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>78690.611568</v>
+        <v>78690.611567999993</v>
       </c>
       <c r="G15" s="1">
-        <v>21.858503</v>
+        <v>21.858502999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1274.450000</v>
+        <v>1274.45</v>
       </c>
       <c r="I15" s="1">
-        <v>-265.041000</v>
+        <v>-265.041</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>78701.101490</v>
+        <v>78701.101490000001</v>
       </c>
       <c r="L15" s="1">
-        <v>21.861417</v>
+        <v>21.861416999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1311.220000</v>
+        <v>1311.22</v>
       </c>
       <c r="N15" s="1">
-        <v>-203.750000</v>
+        <v>-203.75</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>78711.654836</v>
+        <v>78711.654836000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>21.864349</v>
+        <v>21.864349000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1323.500000</v>
+        <v>1323.5</v>
       </c>
       <c r="S15" s="1">
-        <v>-186.190000</v>
+        <v>-186.19</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>78722.161126</v>
+        <v>78722.161126000006</v>
       </c>
       <c r="V15" s="1">
-        <v>21.867267</v>
+        <v>21.867266999999998</v>
       </c>
       <c r="W15" s="1">
-        <v>1337.310000</v>
+        <v>1337.31</v>
       </c>
       <c r="X15" s="1">
-        <v>-172.822000</v>
+        <v>-172.822</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>78732.631146</v>
@@ -3897,270 +4313,270 @@
         <v>21.870175</v>
       </c>
       <c r="AB15" s="1">
-        <v>1355.530000</v>
+        <v>1355.53</v>
       </c>
       <c r="AC15" s="1">
-        <v>-170.800000</v>
+        <v>-170.8</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>78743.428058</v>
+        <v>78743.428058000005</v>
       </c>
       <c r="AF15" s="1">
-        <v>21.873174</v>
+        <v>21.873173999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1368.890000</v>
+        <v>1368.89</v>
       </c>
       <c r="AH15" s="1">
-        <v>-180.349000</v>
+        <v>-180.34899999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>78753.927373</v>
+        <v>78753.927372999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>21.876091</v>
+        <v>21.876090999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1390.490000</v>
+        <v>1390.49</v>
       </c>
       <c r="AM15" s="1">
-        <v>-210.081000</v>
+        <v>-210.08099999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>78764.913758</v>
+        <v>78764.913757999995</v>
       </c>
       <c r="AP15" s="1">
-        <v>21.879143</v>
+        <v>21.879142999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1412.850000</v>
+        <v>1412.85</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.420000</v>
+        <v>-253.42</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>78775.977023</v>
+        <v>78775.977022999999</v>
       </c>
       <c r="AU15" s="1">
         <v>21.882216</v>
       </c>
       <c r="AV15" s="1">
-        <v>1438.160000</v>
+        <v>1438.16</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.700000</v>
+        <v>-312.7</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>78786.930176</v>
+        <v>78786.930175999994</v>
       </c>
       <c r="AZ15" s="1">
         <v>21.885258</v>
       </c>
       <c r="BA15" s="1">
-        <v>1457.930000</v>
+        <v>1457.93</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.161000</v>
+        <v>-364.161</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>78797.975623</v>
+        <v>78797.975623000006</v>
       </c>
       <c r="BE15" s="1">
         <v>21.888327</v>
       </c>
       <c r="BF15" s="1">
-        <v>1544.700000</v>
+        <v>1544.7</v>
       </c>
       <c r="BG15" s="1">
-        <v>-609.234000</v>
+        <v>-609.23400000000004</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>78808.849877</v>
+        <v>78808.849877000001</v>
       </c>
       <c r="BJ15" s="1">
         <v>21.891347</v>
       </c>
       <c r="BK15" s="1">
-        <v>1700.870000</v>
+        <v>1700.87</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1047.710000</v>
+        <v>-1047.71</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>78820.464692</v>
+        <v>78820.464691999994</v>
       </c>
       <c r="BO15" s="1">
-        <v>21.894574</v>
+        <v>21.894573999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1997.520000</v>
+        <v>1997.52</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1804.460000</v>
+        <v>-1804.46</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>78830.954086</v>
+        <v>78830.954085999998</v>
       </c>
       <c r="BT15" s="1">
-        <v>21.897487</v>
+        <v>21.897487000000002</v>
       </c>
       <c r="BU15" s="1">
-        <v>2383.950000</v>
+        <v>2383.9499999999998</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2675.530000</v>
+        <v>-2675.53</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>78841.756952</v>
+        <v>78841.756951999996</v>
       </c>
       <c r="BY15" s="1">
-        <v>21.900488</v>
+        <v>21.900487999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2868.560000</v>
+        <v>2868.56</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3619.550000</v>
+        <v>-3619.55</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>78854.567623</v>
+        <v>78854.567622999995</v>
       </c>
       <c r="CD15" s="1">
-        <v>21.904047</v>
+        <v>21.904046999999998</v>
       </c>
       <c r="CE15" s="1">
-        <v>4261.500000</v>
+        <v>4261.5</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5893.410000</v>
+        <v>-5893.41</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>78680.848813</v>
+        <v>78680.848813000004</v>
       </c>
       <c r="B16" s="1">
         <v>21.855791</v>
       </c>
       <c r="C16" s="1">
-        <v>1248.950000</v>
+        <v>1248.95</v>
       </c>
       <c r="D16" s="1">
-        <v>-305.451000</v>
+        <v>-305.45100000000002</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>78691.298039</v>
+        <v>78691.298039000001</v>
       </c>
       <c r="G16" s="1">
         <v>21.858694</v>
       </c>
       <c r="H16" s="1">
-        <v>1274.500000</v>
+        <v>1274.5</v>
       </c>
       <c r="I16" s="1">
-        <v>-264.072000</v>
+        <v>-264.072</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>78701.446177</v>
+        <v>78701.446177000005</v>
       </c>
       <c r="L16" s="1">
-        <v>21.861513</v>
+        <v>21.861512999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1311.180000</v>
+        <v>1311.18</v>
       </c>
       <c r="N16" s="1">
-        <v>-204.037000</v>
+        <v>-204.03700000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>78712.003556</v>
+        <v>78712.003555999996</v>
       </c>
       <c r="Q16" s="1">
         <v>21.864445</v>
       </c>
       <c r="R16" s="1">
-        <v>1323.520000</v>
+        <v>1323.52</v>
       </c>
       <c r="S16" s="1">
-        <v>-186.176000</v>
+        <v>-186.17599999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>78722.503366</v>
+        <v>78722.503366000004</v>
       </c>
       <c r="V16" s="1">
         <v>21.867362</v>
       </c>
       <c r="W16" s="1">
-        <v>1337.120000</v>
+        <v>1337.12</v>
       </c>
       <c r="X16" s="1">
-        <v>-172.926000</v>
+        <v>-172.92599999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>78733.298295</v>
+        <v>78733.298295000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>21.870361</v>
+        <v>21.870360999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1355.450000</v>
+        <v>1355.45</v>
       </c>
       <c r="AC16" s="1">
-        <v>-170.722000</v>
+        <v>-170.72200000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>78743.803065</v>
@@ -4169,2735 +4585,2736 @@
         <v>21.873279</v>
       </c>
       <c r="AG16" s="1">
-        <v>1369.060000</v>
+        <v>1369.06</v>
       </c>
       <c r="AH16" s="1">
-        <v>-180.458000</v>
+        <v>-180.458</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>78754.312764</v>
+        <v>78754.312764000002</v>
       </c>
       <c r="AK16" s="1">
-        <v>21.876198</v>
+        <v>21.876197999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1390.510000</v>
+        <v>1390.51</v>
       </c>
       <c r="AM16" s="1">
-        <v>-210.074000</v>
+        <v>-210.07400000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>78765.271406</v>
       </c>
       <c r="AP16" s="1">
-        <v>21.879242</v>
+        <v>21.879242000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1412.880000</v>
+        <v>1412.88</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.447000</v>
+        <v>-253.447</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>78776.343260</v>
+        <v>78776.343259999994</v>
       </c>
       <c r="AU16" s="1">
-        <v>21.882318</v>
+        <v>21.882318000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1438.180000</v>
+        <v>1438.18</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.710000</v>
+        <v>-312.70999999999998</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>78787.289280</v>
+        <v>78787.289279999997</v>
       </c>
       <c r="AZ16" s="1">
         <v>21.885358</v>
       </c>
       <c r="BA16" s="1">
-        <v>1457.930000</v>
+        <v>1457.93</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.165000</v>
+        <v>-364.16500000000002</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>78798.404625</v>
+        <v>78798.404624999996</v>
       </c>
       <c r="BE16" s="1">
-        <v>21.888446</v>
+        <v>21.888445999999998</v>
       </c>
       <c r="BF16" s="1">
-        <v>1544.700000</v>
+        <v>1544.7</v>
       </c>
       <c r="BG16" s="1">
-        <v>-609.238000</v>
+        <v>-609.23800000000006</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>78809.269027</v>
+        <v>78809.269027000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>21.891464</v>
+        <v>21.891463999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1700.880000</v>
+        <v>1700.88</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1047.640000</v>
+        <v>-1047.6400000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>78820.857523</v>
+        <v>78820.857522999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>21.894683</v>
+        <v>21.894683000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1997.510000</v>
+        <v>1997.51</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1804.440000</v>
+        <v>-1804.44</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>78831.363782</v>
       </c>
       <c r="BT16" s="1">
-        <v>21.897601</v>
+        <v>21.897601000000002</v>
       </c>
       <c r="BU16" s="1">
-        <v>2383.880000</v>
+        <v>2383.88</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2674.960000</v>
+        <v>-2674.96</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>78842.181528</v>
+        <v>78842.181528000001</v>
       </c>
       <c r="BY16" s="1">
         <v>21.900606</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2868.580000</v>
+        <v>2868.58</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3619.620000</v>
+        <v>-3619.62</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>78855.108295</v>
+        <v>78855.108294999998</v>
       </c>
       <c r="CD16" s="1">
         <v>21.904197</v>
       </c>
       <c r="CE16" s="1">
-        <v>4280.870000</v>
+        <v>4280.87</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5884.660000</v>
+        <v>-5884.66</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>78681.193036</v>
+        <v>78681.193035999997</v>
       </c>
       <c r="B17" s="1">
-        <v>21.855887</v>
+        <v>21.855886999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1248.540000</v>
+        <v>1248.54</v>
       </c>
       <c r="D17" s="1">
-        <v>-305.311000</v>
+        <v>-305.31099999999998</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>78691.641758</v>
+        <v>78691.641757999998</v>
       </c>
       <c r="G17" s="1">
-        <v>21.858789</v>
+        <v>21.858789000000002</v>
       </c>
       <c r="H17" s="1">
-        <v>1274.350000</v>
+        <v>1274.3499999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-264.604000</v>
+        <v>-264.60399999999998</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>78701.793391</v>
+        <v>78701.793390999999</v>
       </c>
       <c r="L17" s="1">
-        <v>21.861609</v>
+        <v>21.861609000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1311.310000</v>
+        <v>1311.31</v>
       </c>
       <c r="N17" s="1">
-        <v>-203.922000</v>
+        <v>-203.922</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>78712.665690</v>
+        <v>78712.665689999994</v>
       </c>
       <c r="Q17" s="1">
-        <v>21.864629</v>
+        <v>21.864629000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1323.600000</v>
+        <v>1323.6</v>
       </c>
       <c r="S17" s="1">
-        <v>-186.196000</v>
+        <v>-186.196</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>78723.163013</v>
+        <v>78723.163012999998</v>
       </c>
       <c r="V17" s="1">
         <v>21.867545</v>
       </c>
       <c r="W17" s="1">
-        <v>1337.500000</v>
+        <v>1337.5</v>
       </c>
       <c r="X17" s="1">
-        <v>-172.763000</v>
+        <v>-172.76300000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>78733.678199</v>
+        <v>78733.678199000002</v>
       </c>
       <c r="AA17" s="1">
         <v>21.870466</v>
       </c>
       <c r="AB17" s="1">
-        <v>1355.540000</v>
+        <v>1355.54</v>
       </c>
       <c r="AC17" s="1">
-        <v>-170.842000</v>
+        <v>-170.84200000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>78744.145274</v>
+        <v>78744.145273999995</v>
       </c>
       <c r="AF17" s="1">
-        <v>21.873374</v>
+        <v>21.873373999999998</v>
       </c>
       <c r="AG17" s="1">
-        <v>1369.180000</v>
+        <v>1369.18</v>
       </c>
       <c r="AH17" s="1">
-        <v>-180.206000</v>
+        <v>-180.20599999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>78754.649548</v>
+        <v>78754.649548000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>21.876292</v>
+        <v>21.876291999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1390.510000</v>
+        <v>1390.51</v>
       </c>
       <c r="AM17" s="1">
-        <v>-210.041000</v>
+        <v>-210.041</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>78765.631966</v>
+        <v>78765.631966000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>21.879342</v>
+        <v>21.879342000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1412.890000</v>
+        <v>1412.89</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.441000</v>
+        <v>-253.441</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>78776.772143</v>
+        <v>78776.772142999995</v>
       </c>
       <c r="AU17" s="1">
-        <v>21.882437</v>
+        <v>21.882436999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1438.150000</v>
+        <v>1438.15</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.718000</v>
+        <v>-312.71800000000002</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>78787.712863</v>
+        <v>78787.712862999993</v>
       </c>
       <c r="AZ17" s="1">
-        <v>21.885476</v>
+        <v>21.885476000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1457.940000</v>
+        <v>1457.94</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.139000</v>
+        <v>-364.13900000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>78798.696769</v>
+        <v>78798.696769000002</v>
       </c>
       <c r="BE17" s="1">
         <v>21.888527</v>
       </c>
       <c r="BF17" s="1">
-        <v>1544.690000</v>
+        <v>1544.69</v>
       </c>
       <c r="BG17" s="1">
-        <v>-609.193000</v>
+        <v>-609.19299999999998</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>78809.624627</v>
+        <v>78809.624626999997</v>
       </c>
       <c r="BJ17" s="1">
         <v>21.891562</v>
       </c>
       <c r="BK17" s="1">
-        <v>1700.830000</v>
+        <v>1700.83</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1047.640000</v>
+        <v>-1047.6400000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>78821.274659</v>
+        <v>78821.274659000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>21.894799</v>
+        <v>21.894798999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1997.490000</v>
+        <v>1997.49</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1804.380000</v>
+        <v>-1804.38</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>78831.783895</v>
       </c>
       <c r="BT17" s="1">
-        <v>21.897718</v>
+        <v>21.897718000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>2383.760000</v>
+        <v>2383.7600000000002</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2674.620000</v>
+        <v>-2674.62</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>78842.627432</v>
+        <v>78842.627431999994</v>
       </c>
       <c r="BY17" s="1">
-        <v>21.900730</v>
+        <v>21.900729999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2868.200000</v>
+        <v>2868.2</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3620.000000</v>
+        <v>-3620</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>78855.648902</v>
+        <v>78855.648902000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>21.904347</v>
+        <v>21.904347000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>4261.990000</v>
+        <v>4261.99</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5879.140000</v>
+        <v>-5879.14</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>78681.534995</v>
+        <v>78681.534994999995</v>
       </c>
       <c r="B18" s="1">
-        <v>21.855982</v>
+        <v>21.855982000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1248.810000</v>
+        <v>1248.81</v>
       </c>
       <c r="D18" s="1">
-        <v>-305.095000</v>
+        <v>-305.09500000000003</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>78691.989455</v>
+        <v>78691.989455000003</v>
       </c>
       <c r="G18" s="1">
-        <v>21.858886</v>
+        <v>21.858885999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>1274.600000</v>
+        <v>1274.5999999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-264.749000</v>
+        <v>-264.74900000000002</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>78702.456528</v>
+        <v>78702.456527999995</v>
       </c>
       <c r="L18" s="1">
-        <v>21.861793</v>
+        <v>21.861792999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1311.200000</v>
+        <v>1311.2</v>
       </c>
       <c r="N18" s="1">
-        <v>-203.965000</v>
+        <v>-203.965</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>78713.050587</v>
+        <v>78713.050587000005</v>
       </c>
       <c r="Q18" s="1">
-        <v>21.864736</v>
+        <v>21.864736000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1323.610000</v>
+        <v>1323.61</v>
       </c>
       <c r="S18" s="1">
-        <v>-186.198000</v>
+        <v>-186.19800000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>78723.531541</v>
+        <v>78723.531541000004</v>
       </c>
       <c r="V18" s="1">
-        <v>21.867648</v>
+        <v>21.867647999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1337.370000</v>
+        <v>1337.37</v>
       </c>
       <c r="X18" s="1">
-        <v>-172.955000</v>
+        <v>-172.95500000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>78734.026913</v>
+        <v>78734.026912999994</v>
       </c>
       <c r="AA18" s="1">
-        <v>21.870563</v>
+        <v>21.870563000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1355.600000</v>
+        <v>1355.6</v>
       </c>
       <c r="AC18" s="1">
-        <v>-170.801000</v>
+        <v>-170.80099999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>78744.488504</v>
+        <v>78744.488503999994</v>
       </c>
       <c r="AF18" s="1">
         <v>21.873469</v>
       </c>
       <c r="AG18" s="1">
-        <v>1369.010000</v>
+        <v>1369.01</v>
       </c>
       <c r="AH18" s="1">
-        <v>-180.698000</v>
+        <v>-180.69800000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>78755.008155</v>
+        <v>78755.008155000003</v>
       </c>
       <c r="AK18" s="1">
-        <v>21.876391</v>
+        <v>21.876391000000002</v>
       </c>
       <c r="AL18" s="1">
-        <v>1390.490000</v>
+        <v>1390.49</v>
       </c>
       <c r="AM18" s="1">
-        <v>-210.058000</v>
+        <v>-210.05799999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>78766.054556</v>
+        <v>78766.054556000003</v>
       </c>
       <c r="AP18" s="1">
-        <v>21.879460</v>
+        <v>21.879460000000002</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1412.870000</v>
+        <v>1412.87</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.416000</v>
+        <v>-253.416</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>78777.071695</v>
+        <v>78777.071695000006</v>
       </c>
       <c r="AU18" s="1">
-        <v>21.882520</v>
+        <v>21.88252</v>
       </c>
       <c r="AV18" s="1">
-        <v>1438.160000</v>
+        <v>1438.16</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.694000</v>
+        <v>-312.69400000000002</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>78788.008744</v>
+        <v>78788.008744000006</v>
       </c>
       <c r="AZ18" s="1">
         <v>21.885558</v>
       </c>
       <c r="BA18" s="1">
-        <v>1457.940000</v>
+        <v>1457.94</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.199000</v>
+        <v>-364.19900000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>78799.060833</v>
+        <v>78799.060832999996</v>
       </c>
       <c r="BE18" s="1">
-        <v>21.888628</v>
+        <v>21.888628000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1544.690000</v>
+        <v>1544.69</v>
       </c>
       <c r="BG18" s="1">
-        <v>-609.188000</v>
+        <v>-609.18799999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>78809.999640</v>
+        <v>78809.999639999995</v>
       </c>
       <c r="BJ18" s="1">
-        <v>21.891667</v>
+        <v>21.891667000000002</v>
       </c>
       <c r="BK18" s="1">
-        <v>1700.840000</v>
+        <v>1700.84</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1047.600000</v>
+        <v>-1047.5999999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>78821.675428</v>
+        <v>78821.675428000002</v>
       </c>
       <c r="BO18" s="1">
-        <v>21.894910</v>
+        <v>21.894909999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1997.490000</v>
+        <v>1997.49</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1804.270000</v>
+        <v>-1804.27</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>78832.210454</v>
       </c>
       <c r="BT18" s="1">
-        <v>21.897836</v>
+        <v>21.897836000000002</v>
       </c>
       <c r="BU18" s="1">
-        <v>2383.620000</v>
+        <v>2383.62</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2674.270000</v>
+        <v>-2674.27</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>78843.478071</v>
+        <v>78843.478071000005</v>
       </c>
       <c r="BY18" s="1">
         <v>21.900966</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2868.520000</v>
+        <v>2868.52</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3619.730000</v>
+        <v>-3619.73</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>78856.189045</v>
+        <v>78856.189045000006</v>
       </c>
       <c r="CD18" s="1">
-        <v>21.904497</v>
+        <v>21.904496999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>4271.060000</v>
+        <v>4271.0600000000004</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5894.280000</v>
+        <v>-5894.28</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>78682.181595</v>
+        <v>78682.181595000002</v>
       </c>
       <c r="B19" s="1">
-        <v>21.856162</v>
+        <v>21.856162000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1248.600000</v>
+        <v>1248.5999999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-305.134000</v>
+        <v>-305.13400000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>78692.438829</v>
+        <v>78692.438829000006</v>
       </c>
       <c r="G19" s="1">
-        <v>21.859011</v>
+        <v>21.859010999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1274.010000</v>
+        <v>1274.01</v>
       </c>
       <c r="I19" s="1">
-        <v>-265.355000</v>
+        <v>-265.35500000000002</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>78702.830016</v>
+        <v>78702.830016000007</v>
       </c>
       <c r="L19" s="1">
-        <v>21.861897</v>
+        <v>21.861896999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1311.270000</v>
+        <v>1311.27</v>
       </c>
       <c r="N19" s="1">
-        <v>-203.891000</v>
+        <v>-203.89099999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>78713.395826</v>
+        <v>78713.395826000007</v>
       </c>
       <c r="Q19" s="1">
         <v>21.864832</v>
       </c>
       <c r="R19" s="1">
-        <v>1323.650000</v>
+        <v>1323.65</v>
       </c>
       <c r="S19" s="1">
-        <v>-186.260000</v>
+        <v>-186.26</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>78723.876756</v>
+        <v>78723.876755999998</v>
       </c>
       <c r="V19" s="1">
-        <v>21.867744</v>
+        <v>21.867743999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>1337.220000</v>
+        <v>1337.22</v>
       </c>
       <c r="X19" s="1">
-        <v>-172.952000</v>
+        <v>-172.952</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>78734.376102</v>
+        <v>78734.376101999995</v>
       </c>
       <c r="AA19" s="1">
-        <v>21.870660</v>
+        <v>21.870660000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1355.470000</v>
+        <v>1355.47</v>
       </c>
       <c r="AC19" s="1">
-        <v>-170.814000</v>
+        <v>-170.81399999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>78744.914568</v>
+        <v>78744.914567999993</v>
       </c>
       <c r="AF19" s="1">
-        <v>21.873587</v>
+        <v>21.873587000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1369.180000</v>
+        <v>1369.18</v>
       </c>
       <c r="AH19" s="1">
-        <v>-180.361000</v>
+        <v>-180.36099999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>78755.436698</v>
+        <v>78755.436698000005</v>
       </c>
       <c r="AK19" s="1">
-        <v>21.876510</v>
+        <v>21.87651</v>
       </c>
       <c r="AL19" s="1">
-        <v>1390.500000</v>
+        <v>1390.5</v>
       </c>
       <c r="AM19" s="1">
-        <v>-210.069000</v>
+        <v>-210.06899999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>78766.352157</v>
+        <v>78766.352157000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>21.879542</v>
+        <v>21.879542000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1412.880000</v>
+        <v>1412.88</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.432000</v>
+        <v>-253.43199999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>78777.438237</v>
+        <v>78777.438236999995</v>
       </c>
       <c r="AU19" s="1">
-        <v>21.882622</v>
+        <v>21.882622000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1438.180000</v>
+        <v>1438.18</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.714000</v>
+        <v>-312.714</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>78788.365600</v>
+        <v>78788.365600000005</v>
       </c>
       <c r="AZ19" s="1">
-        <v>21.885657</v>
+        <v>21.885656999999998</v>
       </c>
       <c r="BA19" s="1">
-        <v>1457.980000</v>
+        <v>1457.98</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.189000</v>
+        <v>-364.18900000000002</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>78799.424541</v>
       </c>
       <c r="BE19" s="1">
-        <v>21.888729</v>
+        <v>21.888729000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1544.700000</v>
+        <v>1544.7</v>
       </c>
       <c r="BG19" s="1">
-        <v>-609.239000</v>
+        <v>-609.23900000000003</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>78810.749553</v>
+        <v>78810.749553000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>21.891875</v>
+        <v>21.891874999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1700.840000</v>
+        <v>1700.84</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1047.580000</v>
+        <v>-1047.58</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>78822.101986</v>
+        <v>78822.101985999994</v>
       </c>
       <c r="BO19" s="1">
         <v>21.895028</v>
       </c>
       <c r="BP19" s="1">
-        <v>1997.410000</v>
+        <v>1997.41</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1804.200000</v>
+        <v>-1804.2</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>78832.616678</v>
+        <v>78832.616678000006</v>
       </c>
       <c r="BT19" s="1">
-        <v>21.897949</v>
+        <v>21.897949000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>2383.320000</v>
+        <v>2383.3200000000002</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2673.790000</v>
+        <v>-2673.79</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>78843.902647</v>
+        <v>78843.902646999995</v>
       </c>
       <c r="BY19" s="1">
-        <v>21.901084</v>
+        <v>21.901084000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2868.070000</v>
+        <v>2868.07</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3619.520000</v>
+        <v>-3619.52</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>78856.727715</v>
+        <v>78856.727715000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>21.904647</v>
+        <v>21.904647000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>4278.650000</v>
+        <v>4278.6499999999996</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5877.290000</v>
+        <v>-5877.29</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>78682.559514</v>
+        <v>78682.559513999993</v>
       </c>
       <c r="B20" s="1">
-        <v>21.856267</v>
+        <v>21.856266999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1248.920000</v>
+        <v>1248.92</v>
       </c>
       <c r="D20" s="1">
-        <v>-305.117000</v>
+        <v>-305.11700000000002</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>78692.681410</v>
+        <v>78692.681410000005</v>
       </c>
       <c r="G20" s="1">
         <v>21.859078</v>
       </c>
       <c r="H20" s="1">
-        <v>1274.130000</v>
+        <v>1274.1300000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-264.063000</v>
+        <v>-264.06299999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>78703.174241</v>
+        <v>78703.174241000001</v>
       </c>
       <c r="L20" s="1">
-        <v>21.861993</v>
+        <v>21.861992999999998</v>
       </c>
       <c r="M20" s="1">
-        <v>1311.170000</v>
+        <v>1311.17</v>
       </c>
       <c r="N20" s="1">
-        <v>-203.936000</v>
+        <v>-203.93600000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>78713.748946</v>
+        <v>78713.748946000007</v>
       </c>
       <c r="Q20" s="1">
-        <v>21.864930</v>
+        <v>21.864930000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1323.550000</v>
+        <v>1323.55</v>
       </c>
       <c r="S20" s="1">
-        <v>-186.166000</v>
+        <v>-186.166</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>78724.226473</v>
+        <v>78724.226473000002</v>
       </c>
       <c r="V20" s="1">
-        <v>21.867841</v>
+        <v>21.867840999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1337.510000</v>
+        <v>1337.51</v>
       </c>
       <c r="X20" s="1">
-        <v>-172.898000</v>
+        <v>-172.898</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>78734.795191</v>
+        <v>78734.795190999997</v>
       </c>
       <c r="AA20" s="1">
-        <v>21.870776</v>
+        <v>21.870775999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1355.400000</v>
+        <v>1355.4</v>
       </c>
       <c r="AC20" s="1">
-        <v>-170.676000</v>
+        <v>-170.67599999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>78745.180424</v>
+        <v>78745.180424000006</v>
       </c>
       <c r="AF20" s="1">
-        <v>21.873661</v>
+        <v>21.873660999999998</v>
       </c>
       <c r="AG20" s="1">
-        <v>1369.080000</v>
+        <v>1369.08</v>
       </c>
       <c r="AH20" s="1">
-        <v>-180.353000</v>
+        <v>-180.35300000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>78755.717935</v>
+        <v>78755.717934999993</v>
       </c>
       <c r="AK20" s="1">
-        <v>21.876588</v>
+        <v>21.876588000000002</v>
       </c>
       <c r="AL20" s="1">
-        <v>1390.490000</v>
+        <v>1390.49</v>
       </c>
       <c r="AM20" s="1">
-        <v>-210.057000</v>
+        <v>-210.05699999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>78766.711757</v>
+        <v>78766.711756999997</v>
       </c>
       <c r="AP20" s="1">
         <v>21.879642</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1412.910000</v>
+        <v>1412.91</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.467000</v>
+        <v>-253.46700000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>78777.802302</v>
+        <v>78777.802301999996</v>
       </c>
       <c r="AU20" s="1">
-        <v>21.882723</v>
+        <v>21.882722999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1438.190000</v>
+        <v>1438.19</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.678000</v>
+        <v>-312.678</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>78788.724702</v>
+        <v>78788.724702000007</v>
       </c>
       <c r="AZ20" s="1">
-        <v>21.885757</v>
+        <v>21.885757000000002</v>
       </c>
       <c r="BA20" s="1">
-        <v>1457.940000</v>
+        <v>1457.94</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.146000</v>
+        <v>-364.14600000000002</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>78800.145616</v>
+        <v>78800.145615999994</v>
       </c>
       <c r="BE20" s="1">
-        <v>21.888929</v>
+        <v>21.888929000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1544.710000</v>
+        <v>1544.71</v>
       </c>
       <c r="BG20" s="1">
-        <v>-609.212000</v>
+        <v>-609.21199999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>78811.123271</v>
+        <v>78811.123271000004</v>
       </c>
       <c r="BJ20" s="1">
-        <v>21.891979</v>
+        <v>21.891978999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1700.850000</v>
+        <v>1700.85</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1047.600000</v>
+        <v>-1047.5999999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>78822.490849</v>
+        <v>78822.490848999994</v>
       </c>
       <c r="BO20" s="1">
-        <v>21.895136</v>
+        <v>21.895136000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1997.520000</v>
+        <v>1997.52</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1804.300000</v>
+        <v>-1804.3</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>78833.031363</v>
+        <v>78833.031363000002</v>
       </c>
       <c r="BT20" s="1">
-        <v>21.898064</v>
+        <v>21.898064000000002</v>
       </c>
       <c r="BU20" s="1">
-        <v>2383.640000</v>
+        <v>2383.64</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2673.500000</v>
+        <v>-2673.5</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>78844.648134</v>
+        <v>78844.648134000003</v>
       </c>
       <c r="BY20" s="1">
-        <v>21.901291</v>
+        <v>21.901291000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2867.930000</v>
+        <v>2867.93</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3619.500000</v>
+        <v>-3619.5</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>78857.579827</v>
+        <v>78857.579826999994</v>
       </c>
       <c r="CD20" s="1">
-        <v>21.904883</v>
+        <v>21.904883000000002</v>
       </c>
       <c r="CE20" s="1">
-        <v>4274.400000</v>
+        <v>4274.3999999999996</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5897.490000</v>
+        <v>-5897.49</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>78682.902283</v>
+        <v>78682.902283000003</v>
       </c>
       <c r="B21" s="1">
-        <v>21.856362</v>
+        <v>21.856362000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1248.560000</v>
+        <v>1248.56</v>
       </c>
       <c r="D21" s="1">
-        <v>-305.448000</v>
+        <v>-305.44799999999998</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>78693.030060</v>
+        <v>78693.030060000005</v>
       </c>
       <c r="G21" s="1">
         <v>21.859175</v>
       </c>
       <c r="H21" s="1">
-        <v>1274.750000</v>
+        <v>1274.75</v>
       </c>
       <c r="I21" s="1">
-        <v>-264.743000</v>
+        <v>-264.74299999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>78703.520976</v>
       </c>
       <c r="L21" s="1">
-        <v>21.862089</v>
+        <v>21.862089000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1311.120000</v>
+        <v>1311.12</v>
       </c>
       <c r="N21" s="1">
-        <v>-203.843000</v>
+        <v>-203.84299999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>78714.172566</v>
+        <v>78714.172565999994</v>
       </c>
       <c r="Q21" s="1">
-        <v>21.865048</v>
+        <v>21.865048000000002</v>
       </c>
       <c r="R21" s="1">
-        <v>1323.500000</v>
+        <v>1323.5</v>
       </c>
       <c r="S21" s="1">
-        <v>-186.205000</v>
+        <v>-186.20500000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>78724.677336</v>
+        <v>78724.677335999993</v>
       </c>
       <c r="V21" s="1">
-        <v>21.867966</v>
+        <v>21.867965999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1337.440000</v>
+        <v>1337.44</v>
       </c>
       <c r="X21" s="1">
-        <v>-172.849000</v>
+        <v>-172.84899999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>78735.083861</v>
+        <v>78735.083861000006</v>
       </c>
       <c r="AA21" s="1">
-        <v>21.870857</v>
+        <v>21.870857000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1355.370000</v>
+        <v>1355.37</v>
       </c>
       <c r="AC21" s="1">
-        <v>-170.853000</v>
+        <v>-170.85300000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>78745.524647</v>
+        <v>78745.524646999998</v>
       </c>
       <c r="AF21" s="1">
-        <v>21.873757</v>
+        <v>21.873757000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1369.020000</v>
+        <v>1369.02</v>
       </c>
       <c r="AH21" s="1">
-        <v>-180.370000</v>
+        <v>-180.37</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>78756.065626</v>
+        <v>78756.065625999996</v>
       </c>
       <c r="AK21" s="1">
-        <v>21.876685</v>
+        <v>21.876684999999998</v>
       </c>
       <c r="AL21" s="1">
-        <v>1390.470000</v>
+        <v>1390.47</v>
       </c>
       <c r="AM21" s="1">
-        <v>-210.069000</v>
+        <v>-210.06899999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>78767.073339</v>
+        <v>78767.073338999995</v>
       </c>
       <c r="AP21" s="1">
-        <v>21.879743</v>
+        <v>21.879743000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1412.900000</v>
+        <v>1412.9</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.442000</v>
+        <v>-253.44200000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>78778.532432</v>
+        <v>78778.532432000007</v>
       </c>
       <c r="AU21" s="1">
-        <v>21.882926</v>
+        <v>21.882926000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1438.180000</v>
+        <v>1438.18</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.712000</v>
+        <v>-312.71199999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>78789.448861</v>
+        <v>78789.448860999997</v>
       </c>
       <c r="AZ21" s="1">
-        <v>21.885958</v>
+        <v>21.885957999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1457.930000</v>
+        <v>1457.93</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.175000</v>
+        <v>-364.17500000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>78800.505679</v>
+        <v>78800.505678999994</v>
       </c>
       <c r="BE21" s="1">
-        <v>21.889029</v>
+        <v>21.889029000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1544.690000</v>
+        <v>1544.69</v>
       </c>
       <c r="BG21" s="1">
-        <v>-609.208000</v>
+        <v>-609.20799999999997</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>78811.500038</v>
+        <v>78811.500037999998</v>
       </c>
       <c r="BJ21" s="1">
         <v>21.892083</v>
       </c>
       <c r="BK21" s="1">
-        <v>1700.910000</v>
+        <v>1700.91</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1047.580000</v>
+        <v>-1047.58</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>78822.910502</v>
+        <v>78822.910501999999</v>
       </c>
       <c r="BO21" s="1">
         <v>21.895253</v>
       </c>
       <c r="BP21" s="1">
-        <v>1997.640000</v>
+        <v>1997.64</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1804.200000</v>
+        <v>-1804.2</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>78833.756483</v>
+        <v>78833.756483000005</v>
       </c>
       <c r="BT21" s="1">
         <v>21.898266</v>
       </c>
       <c r="BU21" s="1">
-        <v>2383.890000</v>
+        <v>2383.89</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2672.840000</v>
+        <v>-2672.84</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>78844.802388</v>
+        <v>78844.802387999996</v>
       </c>
       <c r="BY21" s="1">
-        <v>21.901334</v>
+        <v>21.901333999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2867.980000</v>
+        <v>2867.98</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3619.690000</v>
+        <v>-3619.69</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>78857.805044</v>
+        <v>78857.805043999993</v>
       </c>
       <c r="CD21" s="1">
-        <v>21.904946</v>
+        <v>21.904945999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>4274.200000</v>
+        <v>4274.2</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5895.970000</v>
+        <v>-5895.97</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>78683.246501</v>
+        <v>78683.246501000001</v>
       </c>
       <c r="B22" s="1">
-        <v>21.856457</v>
+        <v>21.856456999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1248.870000</v>
+        <v>1248.8699999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-304.776000</v>
+        <v>-304.77600000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>78693.461580</v>
+        <v>78693.461580000003</v>
       </c>
       <c r="G22" s="1">
-        <v>21.859295</v>
+        <v>21.859294999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1274.440000</v>
+        <v>1274.44</v>
       </c>
       <c r="I22" s="1">
-        <v>-264.150000</v>
+        <v>-264.14999999999998</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>78703.953455</v>
+        <v>78703.953454999995</v>
       </c>
       <c r="L22" s="1">
         <v>21.862209</v>
       </c>
       <c r="M22" s="1">
-        <v>1311.200000</v>
+        <v>1311.2</v>
       </c>
       <c r="N22" s="1">
-        <v>-203.948000</v>
+        <v>-203.94800000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>78714.453264</v>
+        <v>78714.453263999996</v>
       </c>
       <c r="Q22" s="1">
         <v>21.865126</v>
       </c>
       <c r="R22" s="1">
-        <v>1323.530000</v>
+        <v>1323.53</v>
       </c>
       <c r="S22" s="1">
-        <v>-186.137000</v>
+        <v>-186.137</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>78724.931747</v>
+        <v>78724.931746999995</v>
       </c>
       <c r="V22" s="1">
-        <v>21.868037</v>
+        <v>21.868037000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>1337.210000</v>
+        <v>1337.21</v>
       </c>
       <c r="X22" s="1">
-        <v>-172.996000</v>
+        <v>-172.99600000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>78735.431060</v>
+        <v>78735.431060000003</v>
       </c>
       <c r="AA22" s="1">
         <v>21.870953</v>
       </c>
       <c r="AB22" s="1">
-        <v>1355.730000</v>
+        <v>1355.73</v>
       </c>
       <c r="AC22" s="1">
-        <v>-170.912000</v>
+        <v>-170.91200000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>78745.867879</v>
+        <v>78745.867878999998</v>
       </c>
       <c r="AF22" s="1">
-        <v>21.873852</v>
+        <v>21.873851999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1368.960000</v>
+        <v>1368.96</v>
       </c>
       <c r="AH22" s="1">
-        <v>-180.226000</v>
+        <v>-180.226</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>78756.414345</v>
+        <v>78756.414344999997</v>
       </c>
       <c r="AK22" s="1">
-        <v>21.876782</v>
+        <v>21.876781999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1390.480000</v>
+        <v>1390.48</v>
       </c>
       <c r="AM22" s="1">
-        <v>-210.058000</v>
+        <v>-210.05799999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>78767.795051</v>
+        <v>78767.795050999994</v>
       </c>
       <c r="AP22" s="1">
-        <v>21.879943</v>
+        <v>21.879943000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1412.900000</v>
+        <v>1412.9</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.441000</v>
+        <v>-253.441</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>78778.896982</v>
+        <v>78778.896982000006</v>
       </c>
       <c r="AU22" s="1">
-        <v>21.883027</v>
+        <v>21.883026999999998</v>
       </c>
       <c r="AV22" s="1">
-        <v>1438.140000</v>
+        <v>1438.14</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.698000</v>
+        <v>-312.69799999999998</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>78789.821853</v>
+        <v>78789.821853000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>21.886062</v>
+        <v>21.886061999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1457.970000</v>
+        <v>1457.97</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.171000</v>
+        <v>-364.17099999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>78800.865774</v>
+        <v>78800.865774000005</v>
       </c>
       <c r="BE22" s="1">
-        <v>21.889129</v>
+        <v>21.889129000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1544.690000</v>
+        <v>1544.69</v>
       </c>
       <c r="BG22" s="1">
-        <v>-609.202000</v>
+        <v>-609.202</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>78812.215727</v>
+        <v>78812.215727000003</v>
       </c>
       <c r="BJ22" s="1">
-        <v>21.892282</v>
+        <v>21.892282000000002</v>
       </c>
       <c r="BK22" s="1">
-        <v>1700.870000</v>
+        <v>1700.87</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1047.560000</v>
+        <v>-1047.56</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>78823.624208</v>
+        <v>78823.624207999994</v>
       </c>
       <c r="BO22" s="1">
-        <v>21.895451</v>
+        <v>21.895451000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1997.430000</v>
+        <v>1997.43</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1804.390000</v>
+        <v>-1804.39</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>78833.880979</v>
+        <v>78833.880978999994</v>
       </c>
       <c r="BT22" s="1">
-        <v>21.898300</v>
+        <v>21.898299999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>2383.910000</v>
+        <v>2383.91</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2672.450000</v>
+        <v>-2672.45</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>78845.227459</v>
+        <v>78845.227459000002</v>
       </c>
       <c r="BY22" s="1">
-        <v>21.901452</v>
+        <v>21.901451999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2868.090000</v>
+        <v>2868.09</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3619.510000</v>
+        <v>-3619.51</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>78858.327795</v>
+        <v>78858.327795000005</v>
       </c>
       <c r="CD22" s="1">
-        <v>21.905091</v>
+        <v>21.905090999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>4278.660000</v>
+        <v>4278.66</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5882.500000</v>
+        <v>-5882.5</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>78683.672041</v>
+        <v>78683.672040999998</v>
       </c>
       <c r="B23" s="1">
         <v>21.856576</v>
       </c>
       <c r="C23" s="1">
-        <v>1248.910000</v>
+        <v>1248.9100000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-305.113000</v>
+        <v>-305.113</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>78693.722972</v>
+        <v>78693.722972000003</v>
       </c>
       <c r="G23" s="1">
-        <v>21.859367</v>
+        <v>21.859366999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1273.660000</v>
+        <v>1273.6600000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-263.754000</v>
+        <v>-263.75400000000002</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>78704.230718</v>
+        <v>78704.230718000006</v>
       </c>
       <c r="L23" s="1">
-        <v>21.862286</v>
+        <v>21.862286000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1310.880000</v>
+        <v>1310.88</v>
       </c>
       <c r="N23" s="1">
-        <v>-203.809000</v>
+        <v>-203.809</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>78714.801963</v>
+        <v>78714.801963000005</v>
       </c>
       <c r="Q23" s="1">
         <v>21.865223</v>
       </c>
       <c r="R23" s="1">
-        <v>1323.550000</v>
+        <v>1323.55</v>
       </c>
       <c r="S23" s="1">
-        <v>-186.101000</v>
+        <v>-186.101</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>78725.273501</v>
+        <v>78725.273501000003</v>
       </c>
       <c r="V23" s="1">
-        <v>21.868132</v>
+        <v>21.868131999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1337.430000</v>
+        <v>1337.43</v>
       </c>
       <c r="X23" s="1">
-        <v>-173.019000</v>
+        <v>-173.01900000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>78735.780251</v>
+        <v>78735.780251000004</v>
       </c>
       <c r="AA23" s="1">
-        <v>21.871050</v>
+        <v>21.87105</v>
       </c>
       <c r="AB23" s="1">
-        <v>1355.620000</v>
+        <v>1355.62</v>
       </c>
       <c r="AC23" s="1">
-        <v>-170.817000</v>
+        <v>-170.81700000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>78746.557846</v>
+        <v>78746.557845999996</v>
       </c>
       <c r="AF23" s="1">
-        <v>21.874044</v>
+        <v>21.874044000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1369.130000</v>
+        <v>1369.13</v>
       </c>
       <c r="AH23" s="1">
-        <v>-180.327000</v>
+        <v>-180.327</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>78757.111551</v>
+        <v>78757.111550999995</v>
       </c>
       <c r="AK23" s="1">
-        <v>21.876975</v>
+        <v>21.876975000000002</v>
       </c>
       <c r="AL23" s="1">
-        <v>1390.500000</v>
+        <v>1390.5</v>
       </c>
       <c r="AM23" s="1">
-        <v>-210.063000</v>
+        <v>-210.06299999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>78768.184377</v>
+        <v>78768.184376999998</v>
       </c>
       <c r="AP23" s="1">
-        <v>21.880051</v>
+        <v>21.880051000000002</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1412.890000</v>
+        <v>1412.89</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.431000</v>
+        <v>-253.43100000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>78779.262522</v>
+        <v>78779.262522000005</v>
       </c>
       <c r="AU23" s="1">
-        <v>21.883128</v>
+        <v>21.883127999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1438.160000</v>
+        <v>1438.16</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.720000</v>
+        <v>-312.72000000000003</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>78790.215180</v>
+        <v>78790.215179999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>21.886171</v>
+        <v>21.886171000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1457.940000</v>
+        <v>1457.94</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.146000</v>
+        <v>-364.14600000000002</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>78801.545789</v>
+        <v>78801.545788999996</v>
       </c>
       <c r="BE23" s="1">
-        <v>21.889318</v>
+        <v>21.889317999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1544.690000</v>
+        <v>1544.69</v>
       </c>
       <c r="BG23" s="1">
-        <v>-609.196000</v>
+        <v>-609.19600000000003</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>78812.647744</v>
+        <v>78812.647744000002</v>
       </c>
       <c r="BJ23" s="1">
-        <v>21.892402</v>
+        <v>21.892402000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1700.790000</v>
+        <v>1700.79</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1047.610000</v>
+        <v>-1047.6099999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>78823.743744</v>
+        <v>78823.743744000007</v>
       </c>
       <c r="BO23" s="1">
         <v>21.895484</v>
       </c>
       <c r="BP23" s="1">
-        <v>1997.560000</v>
+        <v>1997.56</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1804.310000</v>
+        <v>-1804.31</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>78834.297618</v>
+        <v>78834.297617999997</v>
       </c>
       <c r="BT23" s="1">
-        <v>21.898416</v>
+        <v>21.898416000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>2384.350000</v>
+        <v>2384.35</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2672.050000</v>
+        <v>-2672.05</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>78845.646083</v>
       </c>
       <c r="BY23" s="1">
-        <v>21.901568</v>
+        <v>21.901568000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2868.650000</v>
+        <v>2868.65</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3618.870000</v>
+        <v>-3618.87</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>78858.845618</v>
+        <v>78858.845618000007</v>
       </c>
       <c r="CD23" s="1">
-        <v>21.905235</v>
+        <v>21.905235000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>4278.060000</v>
+        <v>4278.0600000000004</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5885.990000</v>
+        <v>-5885.99</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>78683.943849</v>
+        <v>78683.943849000003</v>
       </c>
       <c r="B24" s="1">
-        <v>21.856651</v>
+        <v>21.856650999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1248.710000</v>
+        <v>1248.71</v>
       </c>
       <c r="D24" s="1">
-        <v>-305.108000</v>
+        <v>-305.108</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>78694.070171</v>
+        <v>78694.070170999999</v>
       </c>
       <c r="G24" s="1">
-        <v>21.859464</v>
+        <v>21.859463999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1274.310000</v>
+        <v>1274.31</v>
       </c>
       <c r="I24" s="1">
-        <v>-264.466000</v>
+        <v>-264.46600000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>78704.574952</v>
+        <v>78704.574951999995</v>
       </c>
       <c r="L24" s="1">
         <v>21.862382</v>
       </c>
       <c r="M24" s="1">
-        <v>1311.160000</v>
+        <v>1311.16</v>
       </c>
       <c r="N24" s="1">
-        <v>-203.857000</v>
+        <v>-203.857</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>78715.148655</v>
+        <v>78715.148654999997</v>
       </c>
       <c r="Q24" s="1">
         <v>21.865319</v>
       </c>
       <c r="R24" s="1">
-        <v>1323.630000</v>
+        <v>1323.63</v>
       </c>
       <c r="S24" s="1">
-        <v>-186.214000</v>
+        <v>-186.214</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>78725.983798</v>
+        <v>78725.983798000001</v>
       </c>
       <c r="V24" s="1">
-        <v>21.868329</v>
+        <v>21.868328999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1337.280000</v>
+        <v>1337.28</v>
       </c>
       <c r="X24" s="1">
-        <v>-172.986000</v>
+        <v>-172.98599999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>78736.478117</v>
+        <v>78736.478117000006</v>
       </c>
       <c r="AA24" s="1">
-        <v>21.871244</v>
+        <v>21.871244000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1355.590000</v>
+        <v>1355.59</v>
       </c>
       <c r="AC24" s="1">
-        <v>-170.957000</v>
+        <v>-170.95699999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>78746.899559</v>
+        <v>78746.899558999998</v>
       </c>
       <c r="AF24" s="1">
         <v>21.874139</v>
       </c>
       <c r="AG24" s="1">
-        <v>1369.050000</v>
+        <v>1369.05</v>
       </c>
       <c r="AH24" s="1">
-        <v>-180.433000</v>
+        <v>-180.43299999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>78757.461687</v>
+        <v>78757.461687000003</v>
       </c>
       <c r="AK24" s="1">
-        <v>21.877073</v>
+        <v>21.877072999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1390.480000</v>
+        <v>1390.48</v>
       </c>
       <c r="AM24" s="1">
-        <v>-210.057000</v>
+        <v>-210.05699999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>78768.543481</v>
+        <v>78768.543481000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>21.880151</v>
+        <v>21.880151000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1412.870000</v>
+        <v>1412.87</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.425000</v>
+        <v>-253.42500000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>78779.949979</v>
+        <v>78779.949978999997</v>
       </c>
       <c r="AU24" s="1">
         <v>21.883319</v>
       </c>
       <c r="AV24" s="1">
-        <v>1438.130000</v>
+        <v>1438.13</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.700000</v>
+        <v>-312.7</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>78790.887791</v>
+        <v>78790.887791000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>21.886358</v>
+        <v>21.886358000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1457.940000</v>
+        <v>1457.94</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.179000</v>
+        <v>-364.17899999999997</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>78801.973837</v>
+        <v>78801.973836999998</v>
       </c>
       <c r="BE24" s="1">
-        <v>21.889437</v>
+        <v>21.889437000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1544.660000</v>
+        <v>1544.66</v>
       </c>
       <c r="BG24" s="1">
-        <v>-609.166000</v>
+        <v>-609.16600000000005</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>78813.050992</v>
+        <v>78813.050992000004</v>
       </c>
       <c r="BJ24" s="1">
-        <v>21.892514</v>
+        <v>21.892513999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1700.870000</v>
+        <v>1700.87</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1047.550000</v>
+        <v>-1047.55</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>78824.154927</v>
+        <v>78824.154926999996</v>
       </c>
       <c r="BO24" s="1">
-        <v>21.895599</v>
+        <v>21.895599000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1997.510000</v>
+        <v>1997.51</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1804.220000</v>
+        <v>-1804.22</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>78834.725169</v>
+        <v>78834.725168999998</v>
       </c>
       <c r="BT24" s="1">
-        <v>21.898535</v>
+        <v>21.898534999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>2385.190000</v>
+        <v>2385.19</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2671.990000</v>
+        <v>-2671.99</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>78846.100419</v>
+        <v>78846.100418999995</v>
       </c>
       <c r="BY24" s="1">
         <v>21.901695</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2867.760000</v>
+        <v>2867.76</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3619.180000</v>
+        <v>-3619.18</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>78859.393698</v>
       </c>
       <c r="CD24" s="1">
-        <v>21.905387</v>
+        <v>21.905387000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>4272.340000</v>
+        <v>4272.34</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5896.740000</v>
+        <v>-5896.74</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>78684.287608</v>
+        <v>78684.287607999999</v>
       </c>
       <c r="B25" s="1">
-        <v>21.856747</v>
+        <v>21.856746999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1248.690000</v>
+        <v>1248.69</v>
       </c>
       <c r="D25" s="1">
-        <v>-305.030000</v>
+        <v>-305.02999999999997</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>78694.414891</v>
+        <v>78694.414890999993</v>
       </c>
       <c r="G25" s="1">
-        <v>21.859560</v>
+        <v>21.859559999999998</v>
       </c>
       <c r="H25" s="1">
-        <v>1274.870000</v>
+        <v>1274.8699999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-264.936000</v>
+        <v>-264.93599999999998</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>78704.922141</v>
+        <v>78704.922141000003</v>
       </c>
       <c r="L25" s="1">
-        <v>21.862478</v>
+        <v>21.862477999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1311.230000</v>
+        <v>1311.23</v>
       </c>
       <c r="N25" s="1">
-        <v>-203.966000</v>
+        <v>-203.96600000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>78715.848520</v>
+        <v>78715.84852</v>
       </c>
       <c r="Q25" s="1">
         <v>21.865513</v>
       </c>
       <c r="R25" s="1">
-        <v>1323.530000</v>
+        <v>1323.53</v>
       </c>
       <c r="S25" s="1">
-        <v>-186.294000</v>
+        <v>-186.29400000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>78726.331458</v>
+        <v>78726.331458000001</v>
       </c>
       <c r="V25" s="1">
-        <v>21.868425</v>
+        <v>21.868424999999998</v>
       </c>
       <c r="W25" s="1">
-        <v>1337.390000</v>
+        <v>1337.39</v>
       </c>
       <c r="X25" s="1">
-        <v>-172.974000</v>
+        <v>-172.97399999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>78736.825812</v>
+        <v>78736.825811999995</v>
       </c>
       <c r="AA25" s="1">
-        <v>21.871341</v>
+        <v>21.871341000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1355.500000</v>
+        <v>1355.5</v>
       </c>
       <c r="AC25" s="1">
-        <v>-170.887000</v>
+        <v>-170.887</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>78747.247285</v>
+        <v>78747.247285000005</v>
       </c>
       <c r="AF25" s="1">
-        <v>21.874235</v>
+        <v>21.874234999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1368.930000</v>
+        <v>1368.93</v>
       </c>
       <c r="AH25" s="1">
-        <v>-180.560000</v>
+        <v>-180.56</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>78757.809560</v>
+        <v>78757.809559999994</v>
       </c>
       <c r="AK25" s="1">
-        <v>21.877169</v>
+        <v>21.877168999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1390.480000</v>
+        <v>1390.48</v>
       </c>
       <c r="AM25" s="1">
-        <v>-210.092000</v>
+        <v>-210.09200000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>78769.216089</v>
+        <v>78769.216088999994</v>
       </c>
       <c r="AP25" s="1">
-        <v>21.880338</v>
+        <v>21.880337999999998</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1412.870000</v>
+        <v>1412.87</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.438000</v>
+        <v>-253.43799999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>78780.353225</v>
+        <v>78780.353224999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>21.883431</v>
+        <v>21.883431000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>1438.160000</v>
+        <v>1438.16</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.702000</v>
+        <v>-312.702</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>78791.292987</v>
+        <v>78791.292986999993</v>
       </c>
       <c r="AZ25" s="1">
-        <v>21.886470</v>
+        <v>21.886469999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1457.940000</v>
+        <v>1457.94</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.181000</v>
+        <v>-364.18099999999998</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>78802.334924</v>
+        <v>78802.334923999995</v>
       </c>
       <c r="BE25" s="1">
-        <v>21.889537</v>
+        <v>21.889537000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1544.680000</v>
+        <v>1544.68</v>
       </c>
       <c r="BG25" s="1">
-        <v>-609.211000</v>
+        <v>-609.21100000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>78813.427485</v>
+        <v>78813.427484999993</v>
       </c>
       <c r="BJ25" s="1">
         <v>21.892619</v>
       </c>
       <c r="BK25" s="1">
-        <v>1700.890000</v>
+        <v>1700.89</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1047.500000</v>
+        <v>-1047.5</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>78824.550271</v>
       </c>
       <c r="BO25" s="1">
-        <v>21.895708</v>
+        <v>21.895707999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1997.410000</v>
+        <v>1997.41</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1804.210000</v>
+        <v>-1804.21</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>78835.151766</v>
+        <v>78835.151765999995</v>
       </c>
       <c r="BT25" s="1">
-        <v>21.898653</v>
+        <v>21.898652999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>2385.260000</v>
+        <v>2385.2600000000002</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2671.250000</v>
+        <v>-2671.25</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>78846.548802</v>
+        <v>78846.548802000005</v>
       </c>
       <c r="BY25" s="1">
         <v>21.901819</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2867.550000</v>
+        <v>2867.55</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3619.760000</v>
+        <v>-3619.76</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>78859.927392</v>
+        <v>78859.927391999998</v>
       </c>
       <c r="CD25" s="1">
         <v>21.905535</v>
       </c>
       <c r="CE25" s="1">
-        <v>4279.710000</v>
+        <v>4279.71</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5883.350000</v>
+        <v>-5883.35</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>78684.626840</v>
+        <v>78684.626839999997</v>
       </c>
       <c r="B26" s="1">
-        <v>21.856841</v>
+        <v>21.856840999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1248.460000</v>
+        <v>1248.46</v>
       </c>
       <c r="D26" s="1">
-        <v>-304.949000</v>
+        <v>-304.94900000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>78695.104330</v>
+        <v>78695.104330000002</v>
       </c>
       <c r="G26" s="1">
-        <v>21.859751</v>
+        <v>21.859750999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1274.740000</v>
+        <v>1274.74</v>
       </c>
       <c r="I26" s="1">
-        <v>-264.387000</v>
+        <v>-264.387</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>78705.615052</v>
+        <v>78705.615051999994</v>
       </c>
       <c r="L26" s="1">
-        <v>21.862671</v>
+        <v>21.862670999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1311.100000</v>
+        <v>1311.1</v>
       </c>
       <c r="N26" s="1">
-        <v>-204.048000</v>
+        <v>-204.048</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>78716.195710</v>
+        <v>78716.19571</v>
       </c>
       <c r="Q26" s="1">
-        <v>21.865610</v>
+        <v>21.86561</v>
       </c>
       <c r="R26" s="1">
-        <v>1323.520000</v>
+        <v>1323.52</v>
       </c>
       <c r="S26" s="1">
-        <v>-186.207000</v>
+        <v>-186.20699999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>78726.671216</v>
+        <v>78726.671216000002</v>
       </c>
       <c r="V26" s="1">
-        <v>21.868520</v>
+        <v>21.86852</v>
       </c>
       <c r="W26" s="1">
-        <v>1337.200000</v>
+        <v>1337.2</v>
       </c>
       <c r="X26" s="1">
-        <v>-172.943000</v>
+        <v>-172.94300000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>78737.176978</v>
+        <v>78737.176978000003</v>
       </c>
       <c r="AA26" s="1">
-        <v>21.871438</v>
+        <v>21.871438000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1355.620000</v>
+        <v>1355.62</v>
       </c>
       <c r="AC26" s="1">
-        <v>-170.657000</v>
+        <v>-170.65700000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>78747.906969</v>
+        <v>78747.906969000003</v>
       </c>
       <c r="AF26" s="1">
         <v>21.874419</v>
       </c>
       <c r="AG26" s="1">
-        <v>1368.970000</v>
+        <v>1368.97</v>
       </c>
       <c r="AH26" s="1">
-        <v>-180.493000</v>
+        <v>-180.49299999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>78758.487590</v>
+        <v>78758.487590000004</v>
       </c>
       <c r="AK26" s="1">
-        <v>21.877358</v>
+        <v>21.877358000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1390.490000</v>
+        <v>1390.49</v>
       </c>
       <c r="AM26" s="1">
-        <v>-210.046000</v>
+        <v>-210.04599999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>78769.648567</v>
+        <v>78769.648566999997</v>
       </c>
       <c r="AP26" s="1">
-        <v>21.880458</v>
+        <v>21.880458000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1412.900000</v>
+        <v>1412.9</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.427000</v>
+        <v>-253.42699999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>78780.719800</v>
+        <v>78780.719800000006</v>
       </c>
       <c r="AU26" s="1">
         <v>21.883533</v>
       </c>
       <c r="AV26" s="1">
-        <v>1438.160000</v>
+        <v>1438.16</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.717000</v>
+        <v>-312.71699999999998</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>78791.662010</v>
+        <v>78791.66201</v>
       </c>
       <c r="AZ26" s="1">
-        <v>21.886573</v>
+        <v>21.886572999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1457.940000</v>
+        <v>1457.94</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.172000</v>
+        <v>-364.17200000000003</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>78802.695020</v>
+        <v>78802.695019999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>21.889638</v>
+        <v>21.889638000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1544.710000</v>
+        <v>1544.71</v>
       </c>
       <c r="BG26" s="1">
-        <v>-609.200000</v>
+        <v>-609.20000000000005</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>78813.857485</v>
       </c>
       <c r="BJ26" s="1">
-        <v>21.892738</v>
+        <v>21.892738000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1700.870000</v>
+        <v>1700.87</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1047.490000</v>
+        <v>-1047.49</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>78824.984238</v>
+        <v>78824.984238000005</v>
       </c>
       <c r="BO26" s="1">
-        <v>21.895829</v>
+        <v>21.895828999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1997.620000</v>
+        <v>1997.62</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1804.220000</v>
+        <v>-1804.22</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>78835.569360</v>
+        <v>78835.569359999994</v>
       </c>
       <c r="BT26" s="1">
-        <v>21.898769</v>
+        <v>21.898769000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>2385.770000</v>
+        <v>2385.77</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2671.430000</v>
+        <v>-2671.43</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>78847.002652</v>
+        <v>78847.002651999996</v>
       </c>
       <c r="BY26" s="1">
-        <v>21.901945</v>
+        <v>21.901945000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2868.840000</v>
+        <v>2868.84</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3619.510000</v>
+        <v>-3619.51</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>78860.445248</v>
+        <v>78860.445248000004</v>
       </c>
       <c r="CD26" s="1">
-        <v>21.905679</v>
+        <v>21.905678999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>4267.310000</v>
+        <v>4267.3100000000004</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5877.250000</v>
+        <v>-5877.25</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>